--- a/Ventas.xlsx
+++ b/Ventas.xlsx
@@ -1,44 +1,45 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr hidePivotFieldList="1" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\juans\OneDrive\Escritorio\Platzi\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19A18FD3-11E7-4E54-B38C-24C5EFC9E58A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C5FDA06-F488-4483-AB6D-6DC53FEBF1DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{B4E16050-6D6A-49A1-83DA-C4CBD7B8666B}"/>
+    <workbookView xWindow="14295" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{B4E16050-6D6A-49A1-83DA-C4CBD7B8666B}"/>
   </bookViews>
   <sheets>
-    <sheet name="Hoja1" sheetId="9" r:id="rId1"/>
-    <sheet name="Ventas 2024" sheetId="10" r:id="rId2"/>
-    <sheet name="Ventas" sheetId="3" r:id="rId3"/>
-    <sheet name="Hoja2" sheetId="11" r:id="rId4"/>
-    <sheet name="Ventas x vendedor" sheetId="5" r:id="rId5"/>
-    <sheet name="Ventas x tienda" sheetId="6" r:id="rId6"/>
-    <sheet name="Gastos mensuales" sheetId="7" r:id="rId7"/>
-    <sheet name="Registro clientes" sheetId="8" r:id="rId8"/>
+    <sheet name="Dashboard" sheetId="12" r:id="rId1"/>
+    <sheet name="Hoja1" sheetId="9" r:id="rId2"/>
+    <sheet name="Ventas 2024" sheetId="10" r:id="rId3"/>
+    <sheet name="Ventas" sheetId="3" r:id="rId4"/>
+    <sheet name="Hoja2" sheetId="11" r:id="rId5"/>
+    <sheet name="Ventas x vendedor" sheetId="5" r:id="rId6"/>
+    <sheet name="Ventas x tienda" sheetId="6" r:id="rId7"/>
+    <sheet name="Gastos mensuales" sheetId="7" r:id="rId8"/>
+    <sheet name="Registro clientes" sheetId="8" r:id="rId9"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId9"/>
+    <externalReference r:id="rId10"/>
   </externalReferences>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Ventas!$A$1:$A$163</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Ventas!$A$1:$I$152</definedName>
     <definedName name="JR_PAGE_ANCHOR_0_1">[1]Ventas!#REF!</definedName>
     <definedName name="SegmentaciónDeDatos_Nombre_vendedor">#N/A</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="9" r:id="rId10"/>
-    <pivotCache cacheId="25" r:id="rId11"/>
+    <pivotCache cacheId="0" r:id="rId11"/>
+    <pivotCache cacheId="1" r:id="rId12"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{BBE1A952-AA13-448e-AADC-164F8A28A991}">
       <x14:slicerCaches>
-        <x14:slicerCache r:id="rId12"/>
+        <x14:slicerCache r:id="rId13"/>
       </x14:slicerCaches>
     </ext>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
@@ -61,8 +62,30 @@
 </workbook>
 </file>
 
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+  <metadataTypes count="1">
+    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLDAPR" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <cellMetadata count="1">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+  </cellMetadata>
+</metadata>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="86">
   <si>
     <t>Vendedor</t>
   </si>
@@ -276,6 +299,51 @@
   <si>
     <t>Promedio de febrero</t>
   </si>
+  <si>
+    <t>Ventas Totales</t>
+  </si>
+  <si>
+    <t>Día de la semana</t>
+  </si>
+  <si>
+    <t>Ventas Totales (lunes)</t>
+  </si>
+  <si>
+    <t>Ventas Promedio</t>
+  </si>
+  <si>
+    <t>Nombre Vendedor</t>
+  </si>
+  <si>
+    <t>Concepto</t>
+  </si>
+  <si>
+    <t>Gasto</t>
+  </si>
+  <si>
+    <t>Resumen de ventas del año</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mes </t>
+  </si>
+  <si>
+    <t>Número de mes</t>
+  </si>
+  <si>
+    <t>Gastos</t>
+  </si>
+  <si>
+    <t>COGS</t>
+  </si>
+  <si>
+    <t>% utilidad</t>
+  </si>
+  <si>
+    <t>Resumen de ventas mensuales</t>
+  </si>
+  <si>
+    <t>Ventas mensuales</t>
+  </si>
 </sst>
 </file>
 
@@ -285,7 +353,7 @@
     <numFmt numFmtId="44" formatCode="_-&quot;$&quot;* #,##0.00_-;\-&quot;$&quot;* #,##0.00_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="_-&quot;$&quot;* #,##0_-;\-&quot;$&quot;* #,##0_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -321,8 +389,24 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="4" tint="-0.249977111117893"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="7">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -359,8 +443,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -383,13 +479,32 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -409,16 +524,57 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="3" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="3" applyFont="1"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="3" xfId="3" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="8" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="8" borderId="0" xfId="3" applyFont="1" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="4">
     <cellStyle name="Moneda" xfId="2" builtinId="4"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 3" xfId="1" xr:uid="{8F53062A-67EE-41F0-AC5B-03CBEEF10C8A}"/>
+    <cellStyle name="Porcentaje" xfId="3" builtinId="5"/>
   </cellStyles>
   <dxfs count="5">
     <dxf>
@@ -463,6 +619,229 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Dashboard!$C$16:$C$18</c:f>
+              <c:numCache>
+                <c:formatCode>_-"$"* #,##0_-;\-"$"* #,##0_-;_-"$"* "-"??_-;_-@_-</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>110688.44</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>50695.119999999995</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>59993.320000000007</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-26B0-4F29-89FE-717A1DF9A586}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="271082336"/>
+        <c:axId val="271076576"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="271082336"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-MX"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="271076576"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="271076576"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="_-&quot;$&quot;* #,##0_-;\-&quot;$&quot;* #,##0_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@_-" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-MX"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="271082336"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-MX"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
@@ -474,7 +853,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Ventas!$B$1</c:f>
+              <c:f>Ventas!$D$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -965,7 +1344,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Ventas!$B$2:$B$152</c:f>
+              <c:f>Ventas!$D$2:$D$152</c:f>
               <c:numCache>
                 <c:formatCode>_-"$"* #,##0_-;\-"$"* #,##0_-;_-"$"* "-"??_-;_-@_-</c:formatCode>
                 <c:ptCount val="151"/>
@@ -1437,7 +1816,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Ventas!$F$1</c:f>
+              <c:f>Ventas!$H$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1466,7 +1845,7 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Ventas!$F$2:$F$152</c:f>
+              <c:f>Ventas!$H$2:$H$152</c:f>
               <c:numCache>
                 <c:formatCode>_-"$"* #,##0_-;\-"$"* #,##0_-;_-"$"* "-"??_-;_-@_-</c:formatCode>
                 <c:ptCount val="151"/>
@@ -2134,7 +2513,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="es-ES"/>
@@ -2646,7 +3025,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="es-ES"/>
@@ -3367,7 +3746,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="es-ES"/>
@@ -4025,43 +4404,6 @@
 </file>
 
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="13">
-  <a:schemeClr val="accent6"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent4"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
-<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -4101,13 +4443,90 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="13">
+  <a:schemeClr val="accent6"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent4"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="withinLinear" id="19">
   <a:schemeClr val="accent6"/>
 </cs:colorStyle>
 </file>
 
-<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -4148,6 +4567,509 @@
 </file>
 
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="236">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -4696,7 +5618,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -5199,7 +6121,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="213">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -5748,7 +6670,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -6255,7 +7177,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{DB45EF1C-24F8-4739-BD26-E9EF322603B6}">
   <sheetPr/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="113" workbookViewId="0" zoomToFit="1"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -6264,9 +7186,50 @@
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>4761</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Gráfico 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F2085D3C-EE93-BE4A-20AC-03C6E62E4F42}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="8675221" cy="6293971"/>
+    <xdr:ext cx="8665221" cy="6288186"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Gráfico 1">
@@ -6295,7 +7258,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -6346,8 +7309,8 @@
       <xdr:row>22</xdr:row>
       <xdr:rowOff>57150</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:graphicFrame macro="">
           <xdr:nvGraphicFramePr>
             <xdr:cNvPr id="3" name="Nombre vendedor">
@@ -6370,7 +7333,7 @@
           </a:graphic>
         </xdr:graphicFrame>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="0" name=""/>
@@ -6414,7 +7377,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -6547,7 +7510,7 @@
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Sebas Bustos" refreshedDate="45558.505722106478" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="151" xr:uid="{61CFBAE5-8DF1-4387-B947-54DCF71EC453}">
   <cacheSource type="worksheet">
-    <worksheetSource ref="A1:G152" sheet="Ventas"/>
+    <worksheetSource ref="A1:I152" sheet="Ventas"/>
   </cacheSource>
   <cacheFields count="11">
     <cacheField name="Fecha" numFmtId="14">
@@ -7417,8 +8380,8 @@
         </groupItems>
       </fieldGroup>
     </cacheField>
-    <cacheField name="COGS" numFmtId="0" formula="'Ventas totales' -Utilidad" databaseField="0"/>
-    <cacheField name="% utilidad" numFmtId="0" formula="Utilidad /'Ventas totales'" databaseField="0"/>
+    <cacheField name="COGS" numFmtId="0" formula="'Ventas totales'-Utilidad" databaseField="0"/>
+    <cacheField name="% utilidad" numFmtId="0" formula="Utilidad/'Ventas totales'" databaseField="0"/>
   </cacheFields>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
@@ -8877,7 +9840,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{C0EC0948-9F52-46AB-A895-61755F8A8FB7}" name="TablaDinámica1" cacheId="9" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{C0EC0948-9F52-46AB-A895-61755F8A8FB7}" name="TablaDinámica1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A4:F10" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="11">
     <pivotField axis="axisRow" numFmtId="14" showAll="0">
@@ -9846,7 +10809,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{0537F795-D85E-4E1B-929E-2E23E6560695}" name="TablaDinámica8" cacheId="25" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="2">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{0537F795-D85E-4E1B-929E-2E23E6560695}" name="TablaDinámica8" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="6">
   <location ref="A1:C7" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="6">
     <pivotField axis="axisRow" showAll="0">
@@ -10256,6 +11219,560 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6B01521-EE5E-48EC-9905-513EDB7D5200}">
+  <dimension ref="A1:O32"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="16" customWidth="1"/>
+    <col min="4" max="4" width="12.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" s="29" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="30" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" s="29" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="30" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B14" s="40" t="s">
+        <v>29</v>
+      </c>
+      <c r="C14" s="40" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B16" t="s">
+        <v>85</v>
+      </c>
+      <c r="C16" s="15">
+        <f>D32</f>
+        <v>110688.44</v>
+      </c>
+    </row>
+    <row r="17" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B17" t="s">
+        <v>82</v>
+      </c>
+      <c r="C17" s="15">
+        <f>I32</f>
+        <v>50695.119999999995</v>
+      </c>
+    </row>
+    <row r="18" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B18" t="s">
+        <v>12</v>
+      </c>
+      <c r="C18" s="15">
+        <f>H32</f>
+        <v>59993.320000000007</v>
+      </c>
+    </row>
+    <row r="19" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B19" t="s">
+        <v>83</v>
+      </c>
+      <c r="C19" s="36">
+        <f>J32</f>
+        <v>0.54200167605578331</v>
+      </c>
+    </row>
+    <row r="23" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="D23">
+        <v>1</v>
+      </c>
+      <c r="E23">
+        <v>2</v>
+      </c>
+      <c r="F23">
+        <v>3</v>
+      </c>
+      <c r="G23">
+        <v>4</v>
+      </c>
+      <c r="H23">
+        <v>5</v>
+      </c>
+      <c r="I23">
+        <v>6</v>
+      </c>
+      <c r="J23">
+        <v>7</v>
+      </c>
+      <c r="K23">
+        <v>8</v>
+      </c>
+      <c r="L23">
+        <v>9</v>
+      </c>
+      <c r="M23">
+        <v>10</v>
+      </c>
+      <c r="N23">
+        <v>11</v>
+      </c>
+      <c r="O23">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="24" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B24" s="31" t="s">
+        <v>79</v>
+      </c>
+      <c r="C24" s="31" t="s">
+        <v>80</v>
+      </c>
+      <c r="D24" s="31" t="s">
+        <v>71</v>
+      </c>
+      <c r="E24" s="31" t="s">
+        <v>9</v>
+      </c>
+      <c r="F24" s="31" t="s">
+        <v>10</v>
+      </c>
+      <c r="G24" s="31" t="s">
+        <v>11</v>
+      </c>
+      <c r="H24" s="31" t="s">
+        <v>12</v>
+      </c>
+      <c r="I24" s="31" t="s">
+        <v>82</v>
+      </c>
+      <c r="J24" s="31" t="s">
+        <v>83</v>
+      </c>
+      <c r="K24" s="31" t="s">
+        <v>13</v>
+      </c>
+      <c r="L24" s="31" t="s">
+        <v>32</v>
+      </c>
+      <c r="M24" s="31" t="s">
+        <v>33</v>
+      </c>
+      <c r="N24" s="31" t="s">
+        <v>34</v>
+      </c>
+      <c r="O24" s="31" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="25" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B25" t="s">
+        <v>35</v>
+      </c>
+      <c r="C25">
+        <v>1</v>
+      </c>
+      <c r="D25" s="25">
+        <f>SUMIF(Ventas!$B:$B,Dashboard!$C25,Ventas!D:D)</f>
+        <v>123191.02</v>
+      </c>
+      <c r="E25" s="25">
+        <f>SUMIF(Ventas!$B:$B,Dashboard!$C25,Ventas!E:E)</f>
+        <v>106391.34000000001</v>
+      </c>
+      <c r="F25" s="25">
+        <f>SUMIF(Ventas!$B:$B,Dashboard!$C25,Ventas!F:F)</f>
+        <v>11667.320000000002</v>
+      </c>
+      <c r="G25" s="25">
+        <f>SUMIF(Ventas!$B:$B,Dashboard!$C25,Ventas!G:G)</f>
+        <v>5132.3599999999997</v>
+      </c>
+      <c r="H25" s="25">
+        <f>SUMIF(Ventas!$B:$B,Dashboard!$C25,Ventas!H:H)</f>
+        <v>66894.640000000014</v>
+      </c>
+      <c r="I25" s="25">
+        <f>D25-H25</f>
+        <v>56296.37999999999</v>
+      </c>
+      <c r="J25" s="36">
+        <f>H25/D25</f>
+        <v>0.54301555421815662</v>
+      </c>
+      <c r="K25" s="32">
+        <f>SUMIF(Ventas!$B:$B,Dashboard!$C25,Ventas!I:I)</f>
+        <v>1216</v>
+      </c>
+      <c r="L25" s="25">
+        <f>VLOOKUP($C25,'Ventas x tienda'!$A$1:F$6,4)</f>
+        <v>45580.68</v>
+      </c>
+      <c r="M25" s="25">
+        <f>VLOOKUP($C25,'Ventas x tienda'!$A$1:G$6,5)</f>
+        <v>34493.49</v>
+      </c>
+      <c r="N25" s="25">
+        <f>VLOOKUP($C25,'Ventas x tienda'!$A$1:H$6,6)</f>
+        <v>43116.86</v>
+      </c>
+      <c r="O25" s="25">
+        <f>DSUM('Gastos mensuales'!$A$1:$F$10,Dashboard!$B25,'Gastos mensuales'!$A$1:$A$10)</f>
+        <v>28156.440000000002</v>
+      </c>
+    </row>
+    <row r="26" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B26" t="s">
+        <v>36</v>
+      </c>
+      <c r="C26">
+        <v>2</v>
+      </c>
+      <c r="D26" s="25">
+        <f>SUMIF(Ventas!$B:$B,Dashboard!$C26,Ventas!D:D)</f>
+        <v>110688.44</v>
+      </c>
+      <c r="E26" s="25">
+        <f>SUMIF(Ventas!$B:$B,Dashboard!$C26,Ventas!E:E)</f>
+        <v>93424.17</v>
+      </c>
+      <c r="F26" s="25">
+        <f>SUMIF(Ventas!$B:$B,Dashboard!$C26,Ventas!F:F)</f>
+        <v>17264.27</v>
+      </c>
+      <c r="G26" s="25">
+        <f>SUMIF(Ventas!$B:$B,Dashboard!$C26,Ventas!G:G)</f>
+        <v>0</v>
+      </c>
+      <c r="H26" s="25">
+        <f>SUMIF(Ventas!$B:$B,Dashboard!$C26,Ventas!H:H)</f>
+        <v>59993.320000000007</v>
+      </c>
+      <c r="I26" s="25">
+        <f t="shared" ref="I26:I29" si="0">D26-H26</f>
+        <v>50695.119999999995</v>
+      </c>
+      <c r="J26" s="36">
+        <f t="shared" ref="J26:J30" si="1">H26/D26</f>
+        <v>0.54200167605578331</v>
+      </c>
+      <c r="K26" s="32">
+        <f>SUMIF(Ventas!$B:$B,Dashboard!$C26,Ventas!I:I)</f>
+        <v>1025</v>
+      </c>
+      <c r="L26" s="25">
+        <f>VLOOKUP($C26,'Ventas x tienda'!$A$1:F$6,4)</f>
+        <v>41884.949999999997</v>
+      </c>
+      <c r="M26" s="25">
+        <f>VLOOKUP($C26,'Ventas x tienda'!$A$1:G$6,5)</f>
+        <v>35725.4</v>
+      </c>
+      <c r="N26" s="25">
+        <f>VLOOKUP($C26,'Ventas x tienda'!$A$1:H$6,6)</f>
+        <v>33078.1</v>
+      </c>
+      <c r="O26" s="25">
+        <f>DSUM('Gastos mensuales'!$A$1:$F$10,Dashboard!$B26,'Gastos mensuales'!$A$1:$A$10)</f>
+        <v>28565.140000000003</v>
+      </c>
+    </row>
+    <row r="27" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B27" t="s">
+        <v>37</v>
+      </c>
+      <c r="C27">
+        <v>3</v>
+      </c>
+      <c r="D27" s="25">
+        <f>SUMIF(Ventas!$B:$B,Dashboard!$C27,Ventas!D:D)</f>
+        <v>121427.19</v>
+      </c>
+      <c r="E27" s="25">
+        <f>SUMIF(Ventas!$B:$B,Dashboard!$C27,Ventas!E:E)</f>
+        <v>103171.26999999999</v>
+      </c>
+      <c r="F27" s="25">
+        <f>SUMIF(Ventas!$B:$B,Dashboard!$C27,Ventas!F:F)</f>
+        <v>18080.920000000002</v>
+      </c>
+      <c r="G27" s="25">
+        <f>SUMIF(Ventas!$B:$B,Dashboard!$C27,Ventas!G:G)</f>
+        <v>175</v>
+      </c>
+      <c r="H27" s="25">
+        <f>SUMIF(Ventas!$B:$B,Dashboard!$C27,Ventas!H:H)</f>
+        <v>57134.319999999992</v>
+      </c>
+      <c r="I27" s="25">
+        <f t="shared" si="0"/>
+        <v>64292.87000000001</v>
+      </c>
+      <c r="J27" s="36">
+        <f t="shared" si="1"/>
+        <v>0.47052328230604684</v>
+      </c>
+      <c r="K27" s="32">
+        <f>SUMIF(Ventas!$B:$B,Dashboard!$C27,Ventas!I:I)</f>
+        <v>1124</v>
+      </c>
+      <c r="L27" s="25">
+        <f>VLOOKUP($C27,'Ventas x tienda'!$A$1:F$6,4)</f>
+        <v>44348.77</v>
+      </c>
+      <c r="M27" s="25">
+        <f>VLOOKUP($C27,'Ventas x tienda'!$A$1:G$6,5)</f>
+        <v>36957.31</v>
+      </c>
+      <c r="N27" s="25">
+        <f>VLOOKUP($C27,'Ventas x tienda'!$A$1:H$6,6)</f>
+        <v>40121.120000000003</v>
+      </c>
+      <c r="O27" s="25">
+        <f>DSUM('Gastos mensuales'!$A$1:$F$10,Dashboard!$B27,'Gastos mensuales'!$A$1:$A$10)</f>
+        <v>33720.93</v>
+      </c>
+    </row>
+    <row r="28" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B28" t="s">
+        <v>38</v>
+      </c>
+      <c r="C28">
+        <v>4</v>
+      </c>
+      <c r="D28" s="25">
+        <f>SUMIF(Ventas!$B:$B,Dashboard!$C28,Ventas!D:D)</f>
+        <v>118557.21</v>
+      </c>
+      <c r="E28" s="25">
+        <f>SUMIF(Ventas!$B:$B,Dashboard!$C28,Ventas!E:E)</f>
+        <v>104127.34</v>
+      </c>
+      <c r="F28" s="25">
+        <f>SUMIF(Ventas!$B:$B,Dashboard!$C28,Ventas!F:F)</f>
+        <v>14429.87</v>
+      </c>
+      <c r="G28" s="25">
+        <f>SUMIF(Ventas!$B:$B,Dashboard!$C28,Ventas!G:G)</f>
+        <v>0</v>
+      </c>
+      <c r="H28" s="25">
+        <f>SUMIF(Ventas!$B:$B,Dashboard!$C28,Ventas!H:H)</f>
+        <v>70724.44</v>
+      </c>
+      <c r="I28" s="25">
+        <f t="shared" si="0"/>
+        <v>47832.770000000004</v>
+      </c>
+      <c r="J28" s="36">
+        <f t="shared" si="1"/>
+        <v>0.59654271553792471</v>
+      </c>
+      <c r="K28" s="32">
+        <f>SUMIF(Ventas!$B:$B,Dashboard!$C28,Ventas!I:I)</f>
+        <v>1100</v>
+      </c>
+      <c r="L28" s="25">
+        <f>VLOOKUP($C28,'Ventas x tienda'!$A$1:F$6,4)</f>
+        <v>43116.86</v>
+      </c>
+      <c r="M28" s="25">
+        <f>VLOOKUP($C28,'Ventas x tienda'!$A$1:G$6,5)</f>
+        <v>36957.31</v>
+      </c>
+      <c r="N28" s="25">
+        <f>VLOOKUP($C28,'Ventas x tienda'!$A$1:H$6,6)</f>
+        <v>38483.050000000003</v>
+      </c>
+      <c r="O28" s="25">
+        <f>DSUM('Gastos mensuales'!$A$1:$F$10,Dashboard!$B28,'Gastos mensuales'!$A$1:$A$10)</f>
+        <v>37694.369999999995</v>
+      </c>
+    </row>
+    <row r="29" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B29" t="s">
+        <v>39</v>
+      </c>
+      <c r="C29">
+        <v>5</v>
+      </c>
+      <c r="D29" s="25">
+        <f>SUMIF(Ventas!$B:$B,Dashboard!$C29,Ventas!D:D)</f>
+        <v>133205.91999999998</v>
+      </c>
+      <c r="E29" s="25">
+        <f>SUMIF(Ventas!$B:$B,Dashboard!$C29,Ventas!E:E)</f>
+        <v>110880.94999999998</v>
+      </c>
+      <c r="F29" s="25">
+        <f>SUMIF(Ventas!$B:$B,Dashboard!$C29,Ventas!F:F)</f>
+        <v>20175.64</v>
+      </c>
+      <c r="G29" s="25">
+        <f>SUMIF(Ventas!$B:$B,Dashboard!$C29,Ventas!G:G)</f>
+        <v>2149.33</v>
+      </c>
+      <c r="H29" s="25">
+        <f>SUMIF(Ventas!$B:$B,Dashboard!$C29,Ventas!H:H)</f>
+        <v>78750.716149999993</v>
+      </c>
+      <c r="I29" s="25">
+        <f t="shared" si="0"/>
+        <v>54455.203849999991</v>
+      </c>
+      <c r="J29" s="36">
+        <f t="shared" si="1"/>
+        <v>0.59119531737027908</v>
+      </c>
+      <c r="K29" s="32">
+        <f>SUMIF(Ventas!$B:$B,Dashboard!$C29,Ventas!I:I)</f>
+        <v>1132</v>
+      </c>
+      <c r="L29" s="25">
+        <f>VLOOKUP($C29,'Ventas x tienda'!$A$1:F$6,4)</f>
+        <v>43116.86</v>
+      </c>
+      <c r="M29" s="25">
+        <f>VLOOKUP($C29,'Ventas x tienda'!$A$1:G$6,5)</f>
+        <v>34493.49</v>
+      </c>
+      <c r="N29" s="25">
+        <f>VLOOKUP($C29,'Ventas x tienda'!$A$1:H$6,6)</f>
+        <v>48092.27</v>
+      </c>
+      <c r="O29" s="25">
+        <f>DSUM('Gastos mensuales'!$A$1:$F$10,Dashboard!$B29,'Gastos mensuales'!$A$1:$A$10)</f>
+        <v>36175.910000000003</v>
+      </c>
+    </row>
+    <row r="30" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B30" s="35" t="s">
+        <v>31</v>
+      </c>
+      <c r="C30" s="35"/>
+      <c r="D30" s="33">
+        <f>SUM(D25:D29)</f>
+        <v>607069.78</v>
+      </c>
+      <c r="E30" s="33">
+        <f t="shared" ref="E30:H30" si="2">SUM(E25:E29)</f>
+        <v>517995.06999999995</v>
+      </c>
+      <c r="F30" s="33">
+        <f t="shared" si="2"/>
+        <v>81618.020000000019</v>
+      </c>
+      <c r="G30" s="33">
+        <f t="shared" si="2"/>
+        <v>7456.69</v>
+      </c>
+      <c r="H30" s="33">
+        <f t="shared" si="2"/>
+        <v>333497.43615000002</v>
+      </c>
+      <c r="I30" s="33">
+        <f t="shared" ref="I30" si="3">SUM(I25:I29)</f>
+        <v>273572.34385</v>
+      </c>
+      <c r="J30" s="37">
+        <f t="shared" si="1"/>
+        <v>0.54935601661805666</v>
+      </c>
+      <c r="K30" s="34">
+        <f>SUM(K25:K29)</f>
+        <v>5597</v>
+      </c>
+      <c r="L30" s="33">
+        <f t="shared" ref="L30:O30" si="4">SUM(L25:L29)</f>
+        <v>218048.12</v>
+      </c>
+      <c r="M30" s="33">
+        <f t="shared" si="4"/>
+        <v>178627</v>
+      </c>
+      <c r="N30" s="33">
+        <f t="shared" si="4"/>
+        <v>202891.4</v>
+      </c>
+      <c r="O30" s="33">
+        <f t="shared" si="4"/>
+        <v>164312.79</v>
+      </c>
+    </row>
+    <row r="32" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B32" s="38" t="str">
+        <f>C14</f>
+        <v>Febrero</v>
+      </c>
+      <c r="C32" s="38">
+        <f>VLOOKUP(B32,B25:C29,2,0)</f>
+        <v>2</v>
+      </c>
+      <c r="D32" s="39" cm="1">
+        <f t="array" ref="D32">INDEX($D$25:$O$29,$C$32,D$23)</f>
+        <v>110688.44</v>
+      </c>
+      <c r="E32" s="39" cm="1">
+        <f t="array" ref="E32">INDEX($D$25:$O$29,$C$32,E$23)</f>
+        <v>93424.17</v>
+      </c>
+      <c r="F32" s="39" cm="1">
+        <f t="array" ref="F32">INDEX($D$25:$O$29,$C$32,F$23)</f>
+        <v>17264.27</v>
+      </c>
+      <c r="G32" s="39" cm="1">
+        <f t="array" ref="G32">INDEX($D$25:$O$29,$C$32,G$23)</f>
+        <v>0</v>
+      </c>
+      <c r="H32" s="39" cm="1">
+        <f t="array" ref="H32">INDEX($D$25:$O$29,$C$32,H$23)</f>
+        <v>59993.320000000007</v>
+      </c>
+      <c r="I32" s="39" cm="1">
+        <f t="array" ref="I32">INDEX($D$25:$O$29,$C$32,I$23)</f>
+        <v>50695.119999999995</v>
+      </c>
+      <c r="J32" s="41" cm="1">
+        <f t="array" ref="J32">INDEX($D$25:$O$29,$C$32,J$23)</f>
+        <v>0.54200167605578331</v>
+      </c>
+      <c r="K32" s="39" cm="1">
+        <f t="array" ref="K32">INDEX($D$25:$O$29,$C$32,K$23)</f>
+        <v>1025</v>
+      </c>
+      <c r="L32" s="39" cm="1">
+        <f t="array" ref="L32">INDEX($D$25:$O$29,$C$32,L$23)</f>
+        <v>41884.949999999997</v>
+      </c>
+      <c r="M32" s="39" cm="1">
+        <f t="array" ref="M32">INDEX($D$25:$O$29,$C$32,M$23)</f>
+        <v>35725.4</v>
+      </c>
+      <c r="N32" s="39" cm="1">
+        <f t="array" ref="N32">INDEX($D$25:$O$29,$C$32,N$23)</f>
+        <v>33078.1</v>
+      </c>
+      <c r="O32" s="39" cm="1">
+        <f t="array" ref="O32">INDEX($D$25:$O$29,$C$32,O$23)</f>
+        <v>28565.140000000003</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C14" xr:uid="{51D5BD91-4441-49B4-A498-A9CE3BCE2047}">
+      <formula1>$B$25:$B$29</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB63948C-2953-4D13-A4D4-831385F1EB95}">
   <dimension ref="A4:F10"/>
   <sheetViews>
@@ -10453,19 +11970,19 @@
       <c r="A5" s="14" t="s">
         <v>57</v>
       </c>
-      <c r="B5" s="16">
+      <c r="B5" s="15">
         <v>123191.02</v>
       </c>
-      <c r="C5" s="17">
+      <c r="C5" s="16">
         <v>0.20292728127563853</v>
       </c>
-      <c r="D5" s="18">
+      <c r="D5" s="17">
         <v>39.225806451612904</v>
       </c>
-      <c r="E5" s="16">
+      <c r="E5" s="15">
         <v>56296.37999999999</v>
       </c>
-      <c r="F5" s="19">
+      <c r="F5" s="18">
         <v>0.54301555421815662</v>
       </c>
     </row>
@@ -10473,19 +11990,19 @@
       <c r="A6" s="14" t="s">
         <v>58</v>
       </c>
-      <c r="B6" s="16">
+      <c r="B6" s="15">
         <v>110688.44</v>
       </c>
-      <c r="C6" s="17">
+      <c r="C6" s="16">
         <v>0.18233231771148284</v>
       </c>
-      <c r="D6" s="18">
+      <c r="D6" s="17">
         <v>36.607142857142854</v>
       </c>
-      <c r="E6" s="16">
+      <c r="E6" s="15">
         <v>50695.119999999995</v>
       </c>
-      <c r="F6" s="19">
+      <c r="F6" s="18">
         <v>0.54200167605578331</v>
       </c>
     </row>
@@ -10493,19 +12010,19 @@
       <c r="A7" s="14" t="s">
         <v>59</v>
       </c>
-      <c r="B7" s="16">
+      <c r="B7" s="15">
         <v>121427.19</v>
       </c>
-      <c r="C7" s="17">
+      <c r="C7" s="16">
         <v>0.20002179980034585</v>
       </c>
-      <c r="D7" s="18">
+      <c r="D7" s="17">
         <v>36.258064516129032</v>
       </c>
-      <c r="E7" s="16">
+      <c r="E7" s="15">
         <v>64292.87000000001</v>
       </c>
-      <c r="F7" s="19">
+      <c r="F7" s="18">
         <v>0.47052328230604684</v>
       </c>
     </row>
@@ -10513,19 +12030,19 @@
       <c r="A8" s="14" t="s">
         <v>60</v>
       </c>
-      <c r="B8" s="16">
+      <c r="B8" s="15">
         <v>118557.21</v>
       </c>
-      <c r="C8" s="17">
+      <c r="C8" s="16">
         <v>0.19529420489354618</v>
       </c>
-      <c r="D8" s="18">
+      <c r="D8" s="17">
         <v>36.666666666666664</v>
       </c>
-      <c r="E8" s="16">
+      <c r="E8" s="15">
         <v>47832.770000000004</v>
       </c>
-      <c r="F8" s="19">
+      <c r="F8" s="18">
         <v>0.59654271553792471</v>
       </c>
     </row>
@@ -10533,19 +12050,19 @@
       <c r="A9" s="14" t="s">
         <v>61</v>
       </c>
-      <c r="B9" s="16">
+      <c r="B9" s="15">
         <v>133205.91999999998</v>
       </c>
-      <c r="C9" s="17">
+      <c r="C9" s="16">
         <v>0.21942439631898655</v>
       </c>
-      <c r="D9" s="18">
+      <c r="D9" s="17">
         <v>36.516129032258064</v>
       </c>
-      <c r="E9" s="16">
+      <c r="E9" s="15">
         <v>54455.203849999991</v>
       </c>
-      <c r="F9" s="19">
+      <c r="F9" s="18">
         <v>0.59119531737027908</v>
       </c>
     </row>
@@ -10553,19 +12070,19 @@
       <c r="A10" s="14" t="s">
         <v>56</v>
       </c>
-      <c r="B10" s="16">
+      <c r="B10" s="15">
         <v>607069.78</v>
       </c>
-      <c r="C10" s="17">
+      <c r="C10" s="16">
         <v>1</v>
       </c>
-      <c r="D10" s="18">
+      <c r="D10" s="17">
         <v>37.066225165562912</v>
       </c>
-      <c r="E10" s="16">
+      <c r="E10" s="15">
         <v>273572.34385000006</v>
       </c>
-      <c r="F10" s="19">
+      <c r="F10" s="18">
         <v>0.54935601661805655</v>
       </c>
     </row>
@@ -10574,53 +12091,74 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B6C0ADA3-4C22-4CF9-8AD3-3A127D5F6CB1}">
-  <dimension ref="A1:G184"/>
+  <dimension ref="A1:O184"/>
   <sheetViews>
-    <sheetView topLeftCell="A117" workbookViewId="0">
-      <selection activeCell="J121" sqref="J121"/>
+    <sheetView topLeftCell="A117" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2:D152"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.85546875" style="3"/>
-    <col min="2" max="2" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="6" width="11" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.85546875" style="22"/>
+    <col min="3" max="3" width="17.28515625" style="22" customWidth="1"/>
+    <col min="4" max="4" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="8" width="11" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.28515625" customWidth="1"/>
+    <col min="12" max="12" width="16.140625" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" customWidth="1"/>
+    <col min="14" max="14" width="20.42578125" style="25" customWidth="1"/>
+    <col min="15" max="15" width="16.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="C1" s="20" t="s">
+        <v>72</v>
+      </c>
+      <c r="D1" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="E1" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="F1" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="G1" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="H1" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="I1" s="6" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="K1" s="23" t="s">
+        <v>72</v>
+      </c>
+      <c r="L1" s="27">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" s="7">
         <v>44562</v>
       </c>
-      <c r="B2" s="8">
-        <v>0</v>
-      </c>
-      <c r="C2" s="8">
-        <v>0</v>
+      <c r="B2" s="21">
+        <f>MONTH(A2)</f>
+        <v>1</v>
+      </c>
+      <c r="C2" s="21">
+        <f>WEEKDAY(A2,2)</f>
+        <v>6</v>
       </c>
       <c r="D2" s="8">
         <v>0</v>
@@ -10631,3482 +12169,4798 @@
       <c r="F2" s="8">
         <v>0</v>
       </c>
-      <c r="G2" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G2" s="8">
+        <v>0</v>
+      </c>
+      <c r="H2" s="8">
+        <v>0</v>
+      </c>
+      <c r="I2" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" s="7">
         <v>44563</v>
       </c>
-      <c r="B3" s="8">
+      <c r="B3" s="21">
+        <f t="shared" ref="B3:B66" si="0">MONTH(A3)</f>
+        <v>1</v>
+      </c>
+      <c r="C3" s="21">
+        <f t="shared" ref="C3:C66" si="1">WEEKDAY(A3,2)</f>
+        <v>7</v>
+      </c>
+      <c r="D3" s="8">
         <v>3574.28</v>
       </c>
-      <c r="C3" s="8">
+      <c r="E3" s="8">
         <v>3459.57</v>
       </c>
-      <c r="D3" s="8">
+      <c r="F3" s="8">
         <v>114.71</v>
       </c>
-      <c r="E3" s="8">
-        <v>0</v>
-      </c>
-      <c r="F3" s="8">
+      <c r="G3" s="8">
+        <v>0</v>
+      </c>
+      <c r="H3" s="8">
         <v>1908.81</v>
       </c>
-      <c r="G3" s="9">
+      <c r="I3" s="9">
         <v>25</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="K3" s="23" t="s">
+        <v>29</v>
+      </c>
+      <c r="L3" s="23" t="s">
+        <v>72</v>
+      </c>
+      <c r="M3" s="23" t="s">
+        <v>71</v>
+      </c>
+      <c r="N3" s="23" t="s">
+        <v>73</v>
+      </c>
+      <c r="O3" s="23" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" s="7">
         <v>44564</v>
       </c>
-      <c r="B4" s="8">
+      <c r="B4" s="21">
+        <f>MONTH(A4)</f>
+        <v>1</v>
+      </c>
+      <c r="C4" s="21">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="D4" s="8">
         <v>4942.17</v>
       </c>
-      <c r="C4" s="8">
+      <c r="E4" s="8">
         <v>4942.17</v>
       </c>
-      <c r="D4" s="8">
-        <v>0</v>
-      </c>
-      <c r="E4" s="8">
-        <v>0</v>
-      </c>
       <c r="F4" s="8">
+        <v>0</v>
+      </c>
+      <c r="G4" s="8">
+        <v>0</v>
+      </c>
+      <c r="H4" s="8">
         <v>2553.7800000000002</v>
       </c>
-      <c r="G4" s="9">
+      <c r="I4" s="9">
         <v>47</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="K4" s="24">
+        <v>1</v>
+      </c>
+      <c r="L4" s="26">
+        <f>$L$1</f>
+        <v>2</v>
+      </c>
+      <c r="M4" s="25">
+        <f>SUMIF(B:B,K4,D:D)</f>
+        <v>123191.02</v>
+      </c>
+      <c r="N4" s="25">
+        <f>SUMIFS(D:D,B:B,K4,C:C,L4)</f>
+        <v>16035.4</v>
+      </c>
+      <c r="O4" s="25">
+        <f>AVERAGEIFS(D:D,B:B,K4,C:C,L4)</f>
+        <v>4008.85</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="7">
         <v>44565</v>
       </c>
-      <c r="B5" s="8">
+      <c r="B5" s="21">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="C5" s="21">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="D5" s="8">
         <v>5551.82</v>
       </c>
-      <c r="C5" s="8">
+      <c r="E5" s="8">
         <v>5108.04</v>
       </c>
-      <c r="D5" s="8">
+      <c r="F5" s="8">
         <v>443.78</v>
       </c>
-      <c r="E5" s="8">
-        <v>0</v>
-      </c>
-      <c r="F5" s="8">
+      <c r="G5" s="8">
+        <v>0</v>
+      </c>
+      <c r="H5" s="8">
         <v>2692.46</v>
       </c>
-      <c r="G5" s="9">
+      <c r="I5" s="9">
         <v>55</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="K5" s="24">
+        <v>2</v>
+      </c>
+      <c r="L5" s="26">
+        <f t="shared" ref="L5:L8" si="2">$L$1</f>
+        <v>2</v>
+      </c>
+      <c r="M5" s="25">
+        <f>SUMIF(B:B,K5,D:D)</f>
+        <v>110688.44</v>
+      </c>
+      <c r="N5" s="25">
+        <f>SUMIFS(D:D,B:B,K5,C:C,L5)</f>
+        <v>16826.400000000001</v>
+      </c>
+      <c r="O5" s="25">
+        <f t="shared" ref="O5:O8" si="3">AVERAGEIFS(D:D,B:B,K5,C:C,L5)</f>
+        <v>4206.6000000000004</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" s="7">
         <v>44566</v>
       </c>
-      <c r="B6" s="8">
+      <c r="B6" s="21">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="C6" s="21">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="D6" s="8">
         <v>6001.55</v>
       </c>
-      <c r="C6" s="8">
+      <c r="E6" s="8">
         <v>5876.3</v>
       </c>
-      <c r="D6" s="8">
+      <c r="F6" s="8">
         <v>125.25</v>
       </c>
-      <c r="E6" s="8">
-        <v>0</v>
-      </c>
-      <c r="F6" s="8">
+      <c r="G6" s="8">
+        <v>0</v>
+      </c>
+      <c r="H6" s="8">
         <v>3018.65</v>
       </c>
-      <c r="G6" s="9">
+      <c r="I6" s="9">
         <v>58</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="K6" s="24">
+        <v>3</v>
+      </c>
+      <c r="L6" s="26">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="M6" s="25">
+        <f>SUMIF(B:B,K6,D:D)</f>
+        <v>121427.19</v>
+      </c>
+      <c r="N6" s="25">
+        <f>SUMIFS(D:D,B:B,K6,C:C,L6)</f>
+        <v>23130.769999999997</v>
+      </c>
+      <c r="O6" s="25">
+        <f t="shared" si="3"/>
+        <v>4626.1539999999995</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" s="7">
         <v>44567</v>
       </c>
-      <c r="B7" s="8">
+      <c r="B7" s="21">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="C7" s="21">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="D7" s="8">
         <v>4118.8900000000003</v>
       </c>
-      <c r="C7" s="8">
+      <c r="E7" s="8">
         <v>3962.21</v>
       </c>
-      <c r="D7" s="8">
+      <c r="F7" s="8">
         <v>156.68</v>
       </c>
-      <c r="E7" s="8">
-        <v>0</v>
-      </c>
-      <c r="F7" s="8">
+      <c r="G7" s="8">
+        <v>0</v>
+      </c>
+      <c r="H7" s="8">
         <v>2053.39</v>
       </c>
-      <c r="G7" s="9">
+      <c r="I7" s="9">
         <v>50</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="K7" s="24">
+        <v>4</v>
+      </c>
+      <c r="L7" s="26">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="M7" s="25">
+        <f>SUMIF(B:B,K7,D:D)</f>
+        <v>118557.21</v>
+      </c>
+      <c r="N7" s="25">
+        <f>SUMIFS(D:D,B:B,K7,C:C,L7)</f>
+        <v>18033.990000000002</v>
+      </c>
+      <c r="O7" s="25">
+        <f t="shared" si="3"/>
+        <v>4508.4975000000004</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" s="7">
         <v>44568</v>
       </c>
-      <c r="B8" s="8">
+      <c r="B8" s="21">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="C8" s="21">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="D8" s="8">
         <v>5649.31</v>
       </c>
-      <c r="C8" s="8">
+      <c r="E8" s="8">
         <v>4933.16</v>
       </c>
-      <c r="D8" s="8">
+      <c r="F8" s="8">
         <v>716.15</v>
       </c>
-      <c r="E8" s="8">
-        <v>0</v>
-      </c>
-      <c r="F8" s="8">
+      <c r="G8" s="8">
+        <v>0</v>
+      </c>
+      <c r="H8" s="8">
         <v>2779.85</v>
       </c>
-      <c r="G8" s="9">
+      <c r="I8" s="9">
         <v>59</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="K8" s="24">
+        <v>5</v>
+      </c>
+      <c r="L8" s="26">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="M8" s="25">
+        <f>SUMIF(B:B,K8,D:D)</f>
+        <v>133205.91999999998</v>
+      </c>
+      <c r="N8" s="25">
+        <f>SUMIFS(D:D,B:B,K8,C:C,L8)</f>
+        <v>16472.025000000001</v>
+      </c>
+      <c r="O8" s="25">
+        <f t="shared" si="3"/>
+        <v>3294.4050000000002</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" s="7">
         <v>44569</v>
       </c>
-      <c r="B9" s="8">
+      <c r="B9" s="21">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="C9" s="21">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="D9" s="8">
         <v>5302.13</v>
       </c>
-      <c r="C9" s="8">
+      <c r="E9" s="8">
         <v>4907.66</v>
       </c>
-      <c r="D9" s="8">
+      <c r="F9" s="8">
         <v>394.47</v>
       </c>
-      <c r="E9" s="8">
-        <v>0</v>
-      </c>
-      <c r="F9" s="8">
+      <c r="G9" s="8">
+        <v>0</v>
+      </c>
+      <c r="H9" s="8">
         <v>2587.8000000000002</v>
       </c>
-      <c r="G9" s="9">
+      <c r="I9" s="9">
         <v>58</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" s="7">
         <v>44570</v>
       </c>
-      <c r="B10" s="8">
+      <c r="B10" s="21">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="C10" s="21">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="D10" s="8">
         <v>3478.01</v>
       </c>
-      <c r="C10" s="8">
+      <c r="E10" s="8">
         <v>1596.41</v>
       </c>
-      <c r="D10" s="8">
+      <c r="F10" s="8">
         <v>1881.6</v>
       </c>
-      <c r="E10" s="8">
-        <v>0</v>
-      </c>
-      <c r="F10" s="8">
+      <c r="G10" s="8">
+        <v>0</v>
+      </c>
+      <c r="H10" s="8">
         <v>1746.17</v>
       </c>
-      <c r="G10" s="9">
+      <c r="I10" s="9">
         <v>32</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" s="7">
         <v>44571</v>
       </c>
-      <c r="B11" s="8">
+      <c r="B11" s="21">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="C11" s="21">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="D11" s="8">
         <v>7573.72</v>
       </c>
-      <c r="C11" s="8">
+      <c r="E11" s="8">
         <v>2347.08</v>
       </c>
-      <c r="D11" s="8">
+      <c r="F11" s="8">
         <v>94.28</v>
       </c>
-      <c r="E11" s="8">
+      <c r="G11" s="8">
         <v>5132.3599999999997</v>
       </c>
-      <c r="F11" s="8">
+      <c r="H11" s="8">
         <v>3802.33</v>
       </c>
-      <c r="G11" s="9">
+      <c r="I11" s="9">
         <v>32</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" s="7">
         <v>44572</v>
       </c>
-      <c r="B12" s="8">
+      <c r="B12" s="21">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="C12" s="21">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="D12" s="8">
         <v>4226.25</v>
       </c>
-      <c r="C12" s="8">
+      <c r="E12" s="8">
         <v>3692.89</v>
       </c>
-      <c r="D12" s="8">
+      <c r="F12" s="8">
         <v>533.36</v>
       </c>
-      <c r="E12" s="8">
-        <v>0</v>
-      </c>
-      <c r="F12" s="8">
+      <c r="G12" s="8">
+        <v>0</v>
+      </c>
+      <c r="H12" s="8">
         <v>2411.77</v>
       </c>
-      <c r="G12" s="9">
+      <c r="I12" s="9">
         <v>46</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" s="7">
         <v>44573</v>
       </c>
-      <c r="B13" s="8">
+      <c r="B13" s="21">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="C13" s="21">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="D13" s="8">
         <v>4172.46</v>
       </c>
-      <c r="C13" s="8">
+      <c r="E13" s="8">
         <v>4172.46</v>
       </c>
-      <c r="D13" s="8">
-        <v>0</v>
-      </c>
-      <c r="E13" s="8">
-        <v>0</v>
-      </c>
       <c r="F13" s="8">
+        <v>0</v>
+      </c>
+      <c r="G13" s="8">
+        <v>0</v>
+      </c>
+      <c r="H13" s="8">
         <v>2291.9499999999998</v>
       </c>
-      <c r="G13" s="9">
+      <c r="I13" s="9">
         <v>48</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" s="7">
         <v>44574</v>
       </c>
-      <c r="B14" s="8">
+      <c r="B14" s="21">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="C14" s="21">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="D14" s="8">
         <v>3580.9</v>
       </c>
-      <c r="C14" s="8">
+      <c r="E14" s="8">
         <v>3217.79</v>
       </c>
-      <c r="D14" s="8">
+      <c r="F14" s="8">
         <v>363.11</v>
       </c>
-      <c r="E14" s="8">
-        <v>0</v>
-      </c>
-      <c r="F14" s="8">
+      <c r="G14" s="8">
+        <v>0</v>
+      </c>
+      <c r="H14" s="8">
         <v>2032.93</v>
       </c>
-      <c r="G14" s="9">
+      <c r="I14" s="9">
         <v>39</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" s="7">
         <v>44575</v>
       </c>
-      <c r="B15" s="8">
+      <c r="B15" s="21">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="C15" s="21">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="D15" s="8">
         <v>3503.12</v>
       </c>
-      <c r="C15" s="8">
+      <c r="E15" s="8">
         <v>2831.55</v>
       </c>
-      <c r="D15" s="8">
+      <c r="F15" s="8">
         <v>671.57</v>
       </c>
-      <c r="E15" s="8">
-        <v>0</v>
-      </c>
-      <c r="F15" s="8">
+      <c r="G15" s="8">
+        <v>0</v>
+      </c>
+      <c r="H15" s="8">
         <v>1996.33</v>
       </c>
-      <c r="G15" s="9">
+      <c r="I15" s="9">
         <v>33</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" s="7">
         <v>44576</v>
       </c>
-      <c r="B16" s="8">
+      <c r="B16" s="21">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="C16" s="21">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="D16" s="8">
         <v>6727.53</v>
       </c>
-      <c r="C16" s="8">
+      <c r="E16" s="8">
         <v>5752.18</v>
       </c>
-      <c r="D16" s="8">
+      <c r="F16" s="8">
         <v>975.35</v>
       </c>
-      <c r="E16" s="8">
-        <v>0</v>
-      </c>
-      <c r="F16" s="8">
+      <c r="G16" s="8">
+        <v>0</v>
+      </c>
+      <c r="H16" s="8">
         <v>3750.84</v>
       </c>
-      <c r="G16" s="9">
+      <c r="I16" s="9">
         <v>48</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="7">
         <v>44577</v>
       </c>
-      <c r="B17" s="8">
+      <c r="B17" s="21">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="C17" s="21">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="D17" s="8">
         <v>3620.16</v>
       </c>
-      <c r="C17" s="8">
+      <c r="E17" s="8">
         <v>3216.57</v>
       </c>
-      <c r="D17" s="8">
+      <c r="F17" s="8">
         <v>403.59</v>
       </c>
-      <c r="E17" s="8">
-        <v>0</v>
-      </c>
-      <c r="F17" s="8">
+      <c r="G17" s="8">
+        <v>0</v>
+      </c>
+      <c r="H17" s="8">
         <v>2127.77</v>
       </c>
-      <c r="G17" s="9">
+      <c r="I17" s="9">
         <v>28</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="7">
         <v>44578</v>
       </c>
-      <c r="B18" s="8">
+      <c r="B18" s="21">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="C18" s="21">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="D18" s="8">
         <v>3178.41</v>
       </c>
-      <c r="C18" s="8">
+      <c r="E18" s="8">
         <v>3154.41</v>
       </c>
-      <c r="D18" s="8">
+      <c r="F18" s="8">
         <v>24</v>
       </c>
-      <c r="E18" s="8">
-        <v>0</v>
-      </c>
-      <c r="F18" s="8">
+      <c r="G18" s="8">
+        <v>0</v>
+      </c>
+      <c r="H18" s="8">
         <v>1826.18</v>
       </c>
-      <c r="G18" s="9">
+      <c r="I18" s="9">
         <v>34</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="7">
         <v>44579</v>
       </c>
-      <c r="B19" s="8">
+      <c r="B19" s="21">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="C19" s="21">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="D19" s="8">
         <v>3765.94</v>
       </c>
-      <c r="C19" s="8">
+      <c r="E19" s="8">
         <v>3388.37</v>
       </c>
-      <c r="D19" s="8">
+      <c r="F19" s="8">
         <v>377.57</v>
       </c>
-      <c r="E19" s="8">
-        <v>0</v>
-      </c>
-      <c r="F19" s="8">
+      <c r="G19" s="8">
+        <v>0</v>
+      </c>
+      <c r="H19" s="8">
         <v>2082.56</v>
       </c>
-      <c r="G19" s="9">
+      <c r="I19" s="9">
         <v>40</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="7">
         <v>44580</v>
       </c>
-      <c r="B20" s="8">
+      <c r="B20" s="21">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="C20" s="21">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="D20" s="8">
         <v>3966.48</v>
       </c>
-      <c r="C20" s="8">
+      <c r="E20" s="8">
         <v>3605.21</v>
       </c>
-      <c r="D20" s="8">
+      <c r="F20" s="8">
         <v>361.27</v>
       </c>
-      <c r="E20" s="8">
-        <v>0</v>
-      </c>
-      <c r="F20" s="8">
+      <c r="G20" s="8">
+        <v>0</v>
+      </c>
+      <c r="H20" s="8">
         <v>2216.8200000000002</v>
       </c>
-      <c r="G20" s="9">
+      <c r="I20" s="9">
         <v>53</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="7">
         <v>44581</v>
       </c>
-      <c r="B21" s="8">
+      <c r="B21" s="21">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="C21" s="21">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="D21" s="8">
         <v>3706.63</v>
       </c>
-      <c r="C21" s="8">
+      <c r="E21" s="8">
         <v>3706.63</v>
       </c>
-      <c r="D21" s="8">
-        <v>0</v>
-      </c>
-      <c r="E21" s="8">
-        <v>0</v>
-      </c>
       <c r="F21" s="8">
+        <v>0</v>
+      </c>
+      <c r="G21" s="8">
+        <v>0</v>
+      </c>
+      <c r="H21" s="8">
         <v>2076.33</v>
       </c>
-      <c r="G21" s="9">
+      <c r="I21" s="9">
         <v>42</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="7">
         <v>44582</v>
       </c>
-      <c r="B22" s="8">
+      <c r="B22" s="21">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="C22" s="21">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="D22" s="8">
         <v>2753.61</v>
       </c>
-      <c r="C22" s="8">
+      <c r="E22" s="8">
         <v>2753.61</v>
       </c>
-      <c r="D22" s="8">
-        <v>0</v>
-      </c>
-      <c r="E22" s="8">
-        <v>0</v>
-      </c>
       <c r="F22" s="8">
+        <v>0</v>
+      </c>
+      <c r="G22" s="8">
+        <v>0</v>
+      </c>
+      <c r="H22" s="8">
         <v>1611.89</v>
       </c>
-      <c r="G22" s="9">
+      <c r="I22" s="9">
         <v>35</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" s="7">
         <v>44583</v>
       </c>
-      <c r="B23" s="8">
+      <c r="B23" s="21">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="C23" s="21">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="D23" s="8">
         <v>6177.15</v>
       </c>
-      <c r="C23" s="8">
+      <c r="E23" s="8">
         <v>4991.5600000000004</v>
       </c>
-      <c r="D23" s="8">
+      <c r="F23" s="8">
         <v>1185.5899999999999</v>
       </c>
-      <c r="E23" s="8">
-        <v>0</v>
-      </c>
-      <c r="F23" s="8">
+      <c r="G23" s="8">
+        <v>0</v>
+      </c>
+      <c r="H23" s="8">
         <v>3505.85</v>
       </c>
-      <c r="G23" s="9">
+      <c r="I23" s="9">
         <v>51</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" s="7">
         <v>44584</v>
       </c>
-      <c r="B24" s="8">
+      <c r="B24" s="21">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="C24" s="21">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="D24" s="8">
         <v>2919.39</v>
       </c>
-      <c r="C24" s="8">
+      <c r="E24" s="8">
         <v>2833.64</v>
       </c>
-      <c r="D24" s="8">
+      <c r="F24" s="8">
         <v>85.75</v>
       </c>
-      <c r="E24" s="8">
-        <v>0</v>
-      </c>
-      <c r="F24" s="8">
+      <c r="G24" s="8">
+        <v>0</v>
+      </c>
+      <c r="H24" s="8">
         <v>1654.02</v>
       </c>
-      <c r="G24" s="9">
+      <c r="I24" s="9">
         <v>26</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" s="7">
         <v>44585</v>
       </c>
-      <c r="B25" s="8">
+      <c r="B25" s="21">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="C25" s="21">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="D25" s="8">
         <v>3034.94</v>
       </c>
-      <c r="C25" s="8">
+      <c r="E25" s="8">
         <v>2721.46</v>
       </c>
-      <c r="D25" s="8">
+      <c r="F25" s="8">
         <v>313.48</v>
       </c>
-      <c r="E25" s="8">
-        <v>0</v>
-      </c>
-      <c r="F25" s="8">
+      <c r="G25" s="8">
+        <v>0</v>
+      </c>
+      <c r="H25" s="8">
         <v>1758.41</v>
       </c>
-      <c r="G25" s="9">
+      <c r="I25" s="9">
         <v>31</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" s="7">
         <v>44586</v>
       </c>
-      <c r="B26" s="8">
+      <c r="B26" s="21">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="C26" s="21">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="D26" s="8">
         <v>2491.39</v>
       </c>
-      <c r="C26" s="8">
+      <c r="E26" s="8">
         <v>2365.77</v>
       </c>
-      <c r="D26" s="8">
+      <c r="F26" s="8">
         <v>125.62</v>
       </c>
-      <c r="E26" s="8">
-        <v>0</v>
-      </c>
-      <c r="F26" s="8">
+      <c r="G26" s="8">
+        <v>0</v>
+      </c>
+      <c r="H26" s="8">
         <v>1430.55</v>
       </c>
-      <c r="G26" s="9">
+      <c r="I26" s="9">
         <v>34</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" s="7">
         <v>44587</v>
       </c>
-      <c r="B27" s="8">
+      <c r="B27" s="21">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="C27" s="21">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="D27" s="8">
         <v>1881.23</v>
       </c>
-      <c r="C27" s="8">
+      <c r="E27" s="8">
         <v>1714.15</v>
       </c>
-      <c r="D27" s="8">
+      <c r="F27" s="8">
         <v>167.08</v>
       </c>
-      <c r="E27" s="8">
-        <v>0</v>
-      </c>
-      <c r="F27" s="8">
+      <c r="G27" s="8">
+        <v>0</v>
+      </c>
+      <c r="H27" s="8">
         <v>1141.31</v>
       </c>
-      <c r="G27" s="9">
+      <c r="I27" s="9">
         <v>24</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" s="7">
         <v>44588</v>
       </c>
-      <c r="B28" s="8">
+      <c r="B28" s="21">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="C28" s="21">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="D28" s="8">
         <v>2533.27</v>
       </c>
-      <c r="C28" s="8">
+      <c r="E28" s="8">
         <v>1714.63</v>
       </c>
-      <c r="D28" s="8">
+      <c r="F28" s="8">
         <v>818.64</v>
       </c>
-      <c r="E28" s="8">
-        <v>0</v>
-      </c>
-      <c r="F28" s="8">
+      <c r="G28" s="8">
+        <v>0</v>
+      </c>
+      <c r="H28" s="8">
         <v>1442.5</v>
       </c>
-      <c r="G28" s="9">
+      <c r="I28" s="9">
         <v>34</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" s="7">
         <v>44589</v>
       </c>
-      <c r="B29" s="8">
+      <c r="B29" s="21">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="C29" s="21">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="D29" s="8">
         <v>4445.8599999999997</v>
       </c>
-      <c r="C29" s="8">
+      <c r="E29" s="8">
         <v>4286.07</v>
       </c>
-      <c r="D29" s="8">
+      <c r="F29" s="8">
         <v>159.79</v>
       </c>
-      <c r="E29" s="8">
-        <v>0</v>
-      </c>
-      <c r="F29" s="8">
+      <c r="G29" s="8">
+        <v>0</v>
+      </c>
+      <c r="H29" s="8">
         <v>2488.38</v>
       </c>
-      <c r="G29" s="9">
+      <c r="I29" s="9">
         <v>45</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" s="7">
         <v>44590</v>
       </c>
-      <c r="B30" s="8">
+      <c r="B30" s="21">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="C30" s="21">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="D30" s="8">
         <v>3152.18</v>
       </c>
-      <c r="C30" s="8">
+      <c r="E30" s="8">
         <v>2150.65</v>
       </c>
-      <c r="D30" s="8">
+      <c r="F30" s="8">
         <v>1001.53</v>
       </c>
-      <c r="E30" s="8">
-        <v>0</v>
-      </c>
-      <c r="F30" s="8">
+      <c r="G30" s="8">
+        <v>0</v>
+      </c>
+      <c r="H30" s="8">
         <v>1844.08</v>
       </c>
-      <c r="G30" s="9">
+      <c r="I30" s="9">
         <v>26</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" s="7">
         <v>44591</v>
       </c>
-      <c r="B31" s="8">
+      <c r="B31" s="21">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="C31" s="21">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="D31" s="8">
         <v>2940.98</v>
       </c>
-      <c r="C31" s="8">
+      <c r="E31" s="8">
         <v>2819.89</v>
       </c>
-      <c r="D31" s="8">
+      <c r="F31" s="8">
         <v>121.09</v>
       </c>
-      <c r="E31" s="8">
-        <v>0</v>
-      </c>
-      <c r="F31" s="8">
+      <c r="G31" s="8">
+        <v>0</v>
+      </c>
+      <c r="H31" s="8">
         <v>1669.58</v>
       </c>
-      <c r="G31" s="9">
+      <c r="I31" s="9">
         <v>29</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" s="7">
         <v>44592</v>
       </c>
-      <c r="B32" s="8">
+      <c r="B32" s="21">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="C32" s="21">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="D32" s="8">
         <v>4221.26</v>
       </c>
-      <c r="C32" s="8">
+      <c r="E32" s="8">
         <v>4169.25</v>
       </c>
-      <c r="D32" s="8">
+      <c r="F32" s="8">
         <v>52.01</v>
       </c>
-      <c r="E32" s="8">
-        <v>0</v>
-      </c>
-      <c r="F32" s="8">
+      <c r="G32" s="8">
+        <v>0</v>
+      </c>
+      <c r="H32" s="8">
         <v>2391.35</v>
       </c>
-      <c r="G32" s="9">
+      <c r="I32" s="9">
         <v>54</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" s="7">
         <v>44593</v>
       </c>
-      <c r="B33" s="8">
+      <c r="B33" s="21">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="C33" s="21">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="D33" s="8">
         <v>4717.8500000000004</v>
       </c>
-      <c r="C33" s="8">
+      <c r="E33" s="8">
         <v>4360.6400000000003</v>
       </c>
-      <c r="D33" s="8">
+      <c r="F33" s="8">
         <v>357.21</v>
       </c>
-      <c r="E33" s="8">
-        <v>0</v>
-      </c>
-      <c r="F33" s="8">
+      <c r="G33" s="8">
+        <v>0</v>
+      </c>
+      <c r="H33" s="8">
         <v>2616.06</v>
       </c>
-      <c r="G33" s="9">
+      <c r="I33" s="9">
         <v>47</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" s="7">
         <v>44594</v>
       </c>
-      <c r="B34" s="8">
+      <c r="B34" s="21">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="C34" s="21">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="D34" s="8">
         <v>4845.28</v>
       </c>
-      <c r="C34" s="8">
+      <c r="E34" s="8">
         <v>4845.28</v>
       </c>
-      <c r="D34" s="8">
-        <v>0</v>
-      </c>
-      <c r="E34" s="8">
-        <v>0</v>
-      </c>
       <c r="F34" s="8">
+        <v>0</v>
+      </c>
+      <c r="G34" s="8">
+        <v>0</v>
+      </c>
+      <c r="H34" s="8">
         <v>2699.69</v>
       </c>
-      <c r="G34" s="9">
+      <c r="I34" s="9">
         <v>42</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" s="7">
         <v>44595</v>
       </c>
-      <c r="B35" s="8">
+      <c r="B35" s="21">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="C35" s="21">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="D35" s="8">
         <v>3418.45</v>
       </c>
-      <c r="C35" s="8">
+      <c r="E35" s="8">
         <v>3305.74</v>
       </c>
-      <c r="D35" s="8">
+      <c r="F35" s="8">
         <v>112.71</v>
       </c>
-      <c r="E35" s="8">
-        <v>0</v>
-      </c>
-      <c r="F35" s="8">
+      <c r="G35" s="8">
+        <v>0</v>
+      </c>
+      <c r="H35" s="8">
         <v>1962.65</v>
       </c>
-      <c r="G35" s="9">
+      <c r="I35" s="9">
         <v>33</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" s="7">
         <v>44596</v>
       </c>
-      <c r="B36" s="8">
+      <c r="B36" s="21">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="C36" s="21">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="D36" s="8">
         <v>3483.92</v>
       </c>
-      <c r="C36" s="8">
+      <c r="E36" s="8">
         <v>2786.75</v>
       </c>
-      <c r="D36" s="8">
+      <c r="F36" s="8">
         <v>697.17</v>
       </c>
-      <c r="E36" s="8">
-        <v>0</v>
-      </c>
-      <c r="F36" s="8">
+      <c r="G36" s="8">
+        <v>0</v>
+      </c>
+      <c r="H36" s="8">
         <v>1975.94</v>
       </c>
-      <c r="G36" s="9">
+      <c r="I36" s="9">
         <v>39</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37" s="7">
         <v>44597</v>
       </c>
-      <c r="B37" s="8">
+      <c r="B37" s="21">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="C37" s="21">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="D37" s="8">
         <v>4180.18</v>
       </c>
-      <c r="C37" s="8">
+      <c r="E37" s="8">
         <v>3462.69</v>
       </c>
-      <c r="D37" s="8">
+      <c r="F37" s="8">
         <v>717.49</v>
       </c>
-      <c r="E37" s="8">
-        <v>0</v>
-      </c>
-      <c r="F37" s="8">
+      <c r="G37" s="8">
+        <v>0</v>
+      </c>
+      <c r="H37" s="8">
         <v>2371.66</v>
       </c>
-      <c r="G37" s="9">
+      <c r="I37" s="9">
         <v>38</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38" s="7">
         <v>44598</v>
       </c>
-      <c r="B38" s="8">
+      <c r="B38" s="21">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="C38" s="21">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="D38" s="8">
         <v>2630.46</v>
       </c>
-      <c r="C38" s="8">
+      <c r="E38" s="8">
         <v>1803.43</v>
       </c>
-      <c r="D38" s="8">
+      <c r="F38" s="8">
         <v>827.03</v>
       </c>
-      <c r="E38" s="8">
-        <v>0</v>
-      </c>
-      <c r="F38" s="8">
+      <c r="G38" s="8">
+        <v>0</v>
+      </c>
+      <c r="H38" s="8">
         <v>1669.58</v>
       </c>
-      <c r="G38" s="9">
+      <c r="I38" s="9">
         <v>22</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39" s="7">
         <v>44599</v>
       </c>
-      <c r="B39" s="8">
+      <c r="B39" s="21">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="C39" s="21">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="D39" s="8">
         <v>2654.27</v>
       </c>
-      <c r="C39" s="8">
+      <c r="E39" s="8">
         <v>2012.41</v>
       </c>
-      <c r="D39" s="8">
+      <c r="F39" s="8">
         <v>641.86</v>
       </c>
-      <c r="E39" s="8">
-        <v>0</v>
-      </c>
-      <c r="F39" s="8">
+      <c r="G39" s="8">
+        <v>0</v>
+      </c>
+      <c r="H39" s="8">
         <v>1524.11</v>
       </c>
-      <c r="G39" s="9">
+      <c r="I39" s="9">
         <v>31</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40" s="7">
         <v>44600</v>
       </c>
-      <c r="B40" s="8">
+      <c r="B40" s="21">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="C40" s="21">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="D40" s="8">
         <v>1405.34</v>
       </c>
-      <c r="C40" s="8">
+      <c r="E40" s="8">
         <v>1405.34</v>
       </c>
-      <c r="D40" s="8">
-        <v>0</v>
-      </c>
-      <c r="E40" s="8">
-        <v>0</v>
-      </c>
       <c r="F40" s="8">
+        <v>0</v>
+      </c>
+      <c r="G40" s="8">
+        <v>0</v>
+      </c>
+      <c r="H40" s="8">
         <v>824.49</v>
       </c>
-      <c r="G40" s="9">
+      <c r="I40" s="9">
         <v>14</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A41" s="7">
         <v>44601</v>
       </c>
-      <c r="B41" s="8">
+      <c r="B41" s="21">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="C41" s="21">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="D41" s="8">
         <v>3204.92</v>
       </c>
-      <c r="C41" s="8">
+      <c r="E41" s="8">
         <v>2472.89</v>
       </c>
-      <c r="D41" s="8">
+      <c r="F41" s="8">
         <v>732.03</v>
       </c>
-      <c r="E41" s="8">
-        <v>0</v>
-      </c>
-      <c r="F41" s="8">
+      <c r="G41" s="8">
+        <v>0</v>
+      </c>
+      <c r="H41" s="8">
         <v>1810.88</v>
       </c>
-      <c r="G41" s="9">
+      <c r="I41" s="9">
         <v>27</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A42" s="7">
         <v>44602</v>
       </c>
-      <c r="B42" s="8">
+      <c r="B42" s="21">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="C42" s="21">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="D42" s="8">
         <v>3167.18</v>
       </c>
-      <c r="C42" s="8">
+      <c r="E42" s="8">
         <v>2983.18</v>
       </c>
-      <c r="D42" s="8">
+      <c r="F42" s="8">
         <v>184</v>
       </c>
-      <c r="E42" s="8">
-        <v>0</v>
-      </c>
-      <c r="F42" s="8">
+      <c r="G42" s="8">
+        <v>0</v>
+      </c>
+      <c r="H42" s="8">
         <v>1773.28</v>
       </c>
-      <c r="G42" s="9">
+      <c r="I42" s="9">
         <v>30</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A43" s="7">
         <v>44603</v>
       </c>
-      <c r="B43" s="8">
+      <c r="B43" s="21">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="C43" s="21">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="D43" s="8">
         <v>2384.7800000000002</v>
       </c>
-      <c r="C43" s="8">
+      <c r="E43" s="8">
         <v>2384.7800000000002</v>
       </c>
-      <c r="D43" s="8">
-        <v>0</v>
-      </c>
-      <c r="E43" s="8">
-        <v>0</v>
-      </c>
       <c r="F43" s="8">
+        <v>0</v>
+      </c>
+      <c r="G43" s="8">
+        <v>0</v>
+      </c>
+      <c r="H43" s="8">
         <v>1326.82</v>
       </c>
-      <c r="G43" s="9">
+      <c r="I43" s="9">
         <v>24</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A44" s="7">
         <v>44604</v>
       </c>
-      <c r="B44" s="8">
+      <c r="B44" s="21">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="C44" s="21">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="D44" s="8">
         <v>4758.67</v>
       </c>
-      <c r="C44" s="8">
+      <c r="E44" s="8">
         <v>4515.74</v>
       </c>
-      <c r="D44" s="8">
+      <c r="F44" s="8">
         <v>242.93</v>
       </c>
-      <c r="E44" s="8">
-        <v>0</v>
-      </c>
-      <c r="F44" s="8">
+      <c r="G44" s="8">
+        <v>0</v>
+      </c>
+      <c r="H44" s="8">
         <v>2747.11</v>
       </c>
-      <c r="G44" s="9">
+      <c r="I44" s="9">
         <v>40</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A45" s="7">
         <v>44605</v>
       </c>
-      <c r="B45" s="8">
+      <c r="B45" s="21">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="C45" s="21">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="D45" s="8">
         <v>2562.7199999999998</v>
       </c>
-      <c r="C45" s="8">
+      <c r="E45" s="8">
         <v>2031.79</v>
       </c>
-      <c r="D45" s="8">
+      <c r="F45" s="8">
         <v>530.92999999999995</v>
       </c>
-      <c r="E45" s="8">
-        <v>0</v>
-      </c>
-      <c r="F45" s="8">
+      <c r="G45" s="8">
+        <v>0</v>
+      </c>
+      <c r="H45" s="8">
         <v>1417.57</v>
       </c>
-      <c r="G45" s="9">
+      <c r="I45" s="9">
         <v>22</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A46" s="7">
         <v>44606</v>
       </c>
-      <c r="B46" s="8">
+      <c r="B46" s="21">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="C46" s="21">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="D46" s="8">
         <v>2791.7</v>
       </c>
-      <c r="C46" s="8">
+      <c r="E46" s="8">
         <v>2753.01</v>
       </c>
-      <c r="D46" s="8">
+      <c r="F46" s="8">
         <v>38.69</v>
       </c>
-      <c r="E46" s="8">
-        <v>0</v>
-      </c>
-      <c r="F46" s="8">
+      <c r="G46" s="8">
+        <v>0</v>
+      </c>
+      <c r="H46" s="8">
         <v>1599.99</v>
       </c>
-      <c r="G46" s="9">
+      <c r="I46" s="9">
         <v>26</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A47" s="7">
         <v>44607</v>
       </c>
-      <c r="B47" s="8">
+      <c r="B47" s="21">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="C47" s="21">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="D47" s="8">
         <v>6054.22</v>
       </c>
-      <c r="C47" s="8">
+      <c r="E47" s="8">
         <v>5314.25</v>
       </c>
-      <c r="D47" s="8">
+      <c r="F47" s="8">
         <v>739.97</v>
       </c>
-      <c r="E47" s="8">
-        <v>0</v>
-      </c>
-      <c r="F47" s="8">
+      <c r="G47" s="8">
+        <v>0</v>
+      </c>
+      <c r="H47" s="8">
         <v>3472.59</v>
       </c>
-      <c r="G47" s="9">
+      <c r="I47" s="9">
         <v>56</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A48" s="7">
         <v>44608</v>
       </c>
-      <c r="B48" s="8">
+      <c r="B48" s="21">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="C48" s="21">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="D48" s="8">
         <v>4255.83</v>
       </c>
-      <c r="C48" s="8">
+      <c r="E48" s="8">
         <v>4245.07</v>
       </c>
-      <c r="D48" s="8">
+      <c r="F48" s="8">
         <v>10.76</v>
       </c>
-      <c r="E48" s="8">
-        <v>0</v>
-      </c>
-      <c r="F48" s="8">
+      <c r="G48" s="8">
+        <v>0</v>
+      </c>
+      <c r="H48" s="8">
         <v>2387.1799999999998</v>
       </c>
-      <c r="G48" s="9">
+      <c r="I48" s="9">
         <v>44</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A49" s="7">
         <v>44609</v>
       </c>
-      <c r="B49" s="8">
+      <c r="B49" s="21">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="C49" s="21">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="D49" s="8">
         <v>4820.66</v>
       </c>
-      <c r="C49" s="8">
+      <c r="E49" s="8">
         <v>3842.05</v>
       </c>
-      <c r="D49" s="8">
+      <c r="F49" s="8">
         <v>978.61</v>
       </c>
-      <c r="E49" s="8">
-        <v>0</v>
-      </c>
-      <c r="F49" s="8">
+      <c r="G49" s="8">
+        <v>0</v>
+      </c>
+      <c r="H49" s="8">
         <v>2765.3</v>
       </c>
-      <c r="G49" s="9">
+      <c r="I49" s="9">
         <v>55</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A50" s="7">
         <v>44610</v>
       </c>
-      <c r="B50" s="8">
+      <c r="B50" s="21">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="C50" s="21">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="D50" s="8">
         <v>2980.8</v>
       </c>
-      <c r="C50" s="8">
+      <c r="E50" s="8">
         <v>2980.8</v>
       </c>
-      <c r="D50" s="8">
-        <v>0</v>
-      </c>
-      <c r="E50" s="8">
-        <v>0</v>
-      </c>
       <c r="F50" s="8">
+        <v>0</v>
+      </c>
+      <c r="G50" s="8">
+        <v>0</v>
+      </c>
+      <c r="H50" s="8">
         <v>1736.15</v>
       </c>
-      <c r="G50" s="9">
+      <c r="I50" s="9">
         <v>37</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A51" s="7">
         <v>44611</v>
       </c>
-      <c r="B51" s="8">
+      <c r="B51" s="21">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="C51" s="21">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="D51" s="8">
         <v>5728.46</v>
       </c>
-      <c r="C51" s="8">
+      <c r="E51" s="8">
         <v>4623.34</v>
       </c>
-      <c r="D51" s="8">
+      <c r="F51" s="8">
         <v>1105.1199999999999</v>
       </c>
-      <c r="E51" s="8">
-        <v>0</v>
-      </c>
-      <c r="F51" s="8">
+      <c r="G51" s="8">
+        <v>0</v>
+      </c>
+      <c r="H51" s="8">
         <v>3210.62</v>
       </c>
-      <c r="G51" s="9">
+      <c r="I51" s="9">
         <v>44</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A52" s="7">
         <v>44612</v>
       </c>
-      <c r="B52" s="8">
+      <c r="B52" s="21">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="C52" s="21">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="D52" s="8">
         <v>5559.94</v>
       </c>
-      <c r="C52" s="8">
+      <c r="E52" s="8">
         <v>2744.5</v>
       </c>
-      <c r="D52" s="8">
+      <c r="F52" s="8">
         <v>2815.44</v>
       </c>
-      <c r="E52" s="8">
-        <v>0</v>
-      </c>
-      <c r="F52" s="8">
+      <c r="G52" s="8">
+        <v>0</v>
+      </c>
+      <c r="H52" s="8">
         <v>1440.61</v>
       </c>
-      <c r="G52" s="9">
+      <c r="I52" s="9">
         <v>33</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A53" s="7">
         <v>44613</v>
       </c>
-      <c r="B53" s="8">
+      <c r="B53" s="21">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="C53" s="21">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="D53" s="8">
         <v>4966.54</v>
       </c>
-      <c r="C53" s="8">
+      <c r="E53" s="8">
         <v>4085.99</v>
       </c>
-      <c r="D53" s="8">
+      <c r="F53" s="8">
         <v>880.55</v>
       </c>
-      <c r="E53" s="8">
-        <v>0</v>
-      </c>
-      <c r="F53" s="8">
+      <c r="G53" s="8">
+        <v>0</v>
+      </c>
+      <c r="H53" s="8">
         <v>2924.42</v>
       </c>
-      <c r="G53" s="9">
+      <c r="I53" s="9">
         <v>35</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A54" s="7">
         <v>44614</v>
       </c>
-      <c r="B54" s="8">
+      <c r="B54" s="21">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="C54" s="21">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="D54" s="8">
         <v>4648.99</v>
       </c>
-      <c r="C54" s="8">
+      <c r="E54" s="8">
         <v>4545.76</v>
       </c>
-      <c r="D54" s="8">
+      <c r="F54" s="8">
         <v>103.23</v>
       </c>
-      <c r="E54" s="8">
-        <v>0</v>
-      </c>
-      <c r="F54" s="8">
+      <c r="G54" s="8">
+        <v>0</v>
+      </c>
+      <c r="H54" s="8">
         <v>2535.5100000000002</v>
       </c>
-      <c r="G54" s="9">
+      <c r="I54" s="9">
         <v>49</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A55" s="7">
         <v>44615</v>
       </c>
-      <c r="B55" s="8">
+      <c r="B55" s="21">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="C55" s="21">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="D55" s="8">
         <v>3440.66</v>
       </c>
-      <c r="C55" s="8">
+      <c r="E55" s="8">
         <v>2997.29</v>
       </c>
-      <c r="D55" s="8">
+      <c r="F55" s="8">
         <v>443.37</v>
       </c>
-      <c r="E55" s="8">
-        <v>0</v>
-      </c>
-      <c r="F55" s="8">
+      <c r="G55" s="8">
+        <v>0</v>
+      </c>
+      <c r="H55" s="8">
         <v>1976.46</v>
       </c>
-      <c r="G55" s="9">
+      <c r="I55" s="9">
         <v>43</v>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A56" s="7">
         <v>44616</v>
       </c>
-      <c r="B56" s="8">
+      <c r="B56" s="21">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="C56" s="21">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="D56" s="8">
         <v>4088.09</v>
       </c>
-      <c r="C56" s="8">
+      <c r="E56" s="8">
         <v>3492.17</v>
       </c>
-      <c r="D56" s="8">
+      <c r="F56" s="8">
         <v>595.91999999999996</v>
       </c>
-      <c r="E56" s="8">
-        <v>0</v>
-      </c>
-      <c r="F56" s="8">
+      <c r="G56" s="8">
+        <v>0</v>
+      </c>
+      <c r="H56" s="8">
         <v>2317.0700000000002</v>
       </c>
-      <c r="G56" s="9">
+      <c r="I56" s="9">
         <v>40</v>
       </c>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A57" s="7">
         <v>44617</v>
       </c>
-      <c r="B57" s="8">
+      <c r="B57" s="21">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="C57" s="21">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="D57" s="8">
         <v>2918.34</v>
       </c>
-      <c r="C57" s="8">
+      <c r="E57" s="8">
         <v>2489.85</v>
       </c>
-      <c r="D57" s="8">
+      <c r="F57" s="8">
         <v>428.49</v>
       </c>
-      <c r="E57" s="8">
-        <v>0</v>
-      </c>
-      <c r="F57" s="8">
+      <c r="G57" s="8">
+        <v>0</v>
+      </c>
+      <c r="H57" s="8">
         <v>1668.94</v>
       </c>
-      <c r="G57" s="9">
+      <c r="I57" s="9">
         <v>34</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A58" s="7">
         <v>44618</v>
       </c>
-      <c r="B58" s="8">
+      <c r="B58" s="21">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="C58" s="21">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="D58" s="8">
         <v>7506.01</v>
       </c>
-      <c r="C58" s="8">
+      <c r="E58" s="8">
         <v>4240.6499999999996</v>
       </c>
-      <c r="D58" s="8">
+      <c r="F58" s="8">
         <v>3265.36</v>
       </c>
-      <c r="E58" s="8">
-        <v>0</v>
-      </c>
-      <c r="F58" s="8">
+      <c r="G58" s="8">
+        <v>0</v>
+      </c>
+      <c r="H58" s="8">
         <v>4222.74</v>
       </c>
-      <c r="G58" s="9">
+      <c r="I58" s="9">
         <v>49</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A59" s="7">
         <v>44619</v>
       </c>
-      <c r="B59" s="8">
+      <c r="B59" s="21">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="C59" s="21">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="D59" s="8">
         <v>3184.52</v>
       </c>
-      <c r="C59" s="8">
+      <c r="E59" s="8">
         <v>2716.03</v>
       </c>
-      <c r="D59" s="8">
+      <c r="F59" s="8">
         <v>468.49</v>
       </c>
-      <c r="E59" s="8">
-        <v>0</v>
-      </c>
-      <c r="F59" s="8">
+      <c r="G59" s="8">
+        <v>0</v>
+      </c>
+      <c r="H59" s="8">
         <v>3015.9</v>
       </c>
-      <c r="G59" s="9">
+      <c r="I59" s="9">
         <v>31</v>
       </c>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A60" s="7">
         <v>44620</v>
       </c>
-      <c r="B60" s="8">
+      <c r="B60" s="21">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="C60" s="21">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="D60" s="8">
         <v>4329.66</v>
       </c>
-      <c r="C60" s="8">
+      <c r="E60" s="8">
         <v>3982.75</v>
       </c>
-      <c r="D60" s="8">
+      <c r="F60" s="8">
         <v>346.91</v>
       </c>
-      <c r="E60" s="8">
-        <v>0</v>
-      </c>
-      <c r="F60" s="8">
-        <v>0</v>
-      </c>
-      <c r="G60" s="9">
+      <c r="G60" s="8">
+        <v>0</v>
+      </c>
+      <c r="H60" s="8">
+        <v>0</v>
+      </c>
+      <c r="I60" s="9">
         <v>40</v>
       </c>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A61" s="7">
         <v>44621</v>
       </c>
-      <c r="B61" s="8">
+      <c r="B61" s="21">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="C61" s="21">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="D61" s="8">
         <v>6669.52</v>
       </c>
-      <c r="C61" s="8">
+      <c r="E61" s="8">
         <v>5792.44</v>
       </c>
-      <c r="D61" s="8">
+      <c r="F61" s="8">
         <v>877.08</v>
       </c>
-      <c r="E61" s="8">
-        <v>0</v>
-      </c>
-      <c r="F61" s="8">
-        <v>0</v>
-      </c>
-      <c r="G61" s="9">
+      <c r="G61" s="8">
+        <v>0</v>
+      </c>
+      <c r="H61" s="8">
+        <v>0</v>
+      </c>
+      <c r="I61" s="9">
         <v>60</v>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A62" s="7">
         <v>44622</v>
       </c>
-      <c r="B62" s="8">
+      <c r="B62" s="21">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="C62" s="21">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="D62" s="8">
         <v>2966.54</v>
       </c>
-      <c r="C62" s="8">
+      <c r="E62" s="8">
         <v>2898.01</v>
       </c>
-      <c r="D62" s="8">
+      <c r="F62" s="8">
         <v>68.53</v>
       </c>
-      <c r="E62" s="8">
-        <v>0</v>
-      </c>
-      <c r="F62" s="8">
-        <v>0</v>
-      </c>
-      <c r="G62" s="9">
+      <c r="G62" s="8">
+        <v>0</v>
+      </c>
+      <c r="H62" s="8">
+        <v>0</v>
+      </c>
+      <c r="I62" s="9">
         <v>29</v>
       </c>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A63" s="7">
         <v>44623</v>
       </c>
-      <c r="B63" s="8">
+      <c r="B63" s="21">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="C63" s="21">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="D63" s="8">
         <v>6080.77</v>
       </c>
-      <c r="C63" s="8">
+      <c r="E63" s="8">
         <v>4636.5600000000004</v>
       </c>
-      <c r="D63" s="8">
+      <c r="F63" s="8">
         <v>1444.21</v>
       </c>
-      <c r="E63" s="8">
-        <v>0</v>
-      </c>
-      <c r="F63" s="8">
-        <v>0</v>
-      </c>
-      <c r="G63" s="9">
+      <c r="G63" s="8">
+        <v>0</v>
+      </c>
+      <c r="H63" s="8">
+        <v>0</v>
+      </c>
+      <c r="I63" s="9">
         <v>50</v>
       </c>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A64" s="7">
         <v>44624</v>
       </c>
-      <c r="B64" s="8">
+      <c r="B64" s="21">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="C64" s="21">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="D64" s="8">
         <v>3690.55</v>
       </c>
-      <c r="C64" s="8">
+      <c r="E64" s="8">
         <v>3490.55</v>
       </c>
-      <c r="D64" s="8">
+      <c r="F64" s="8">
         <v>200</v>
       </c>
-      <c r="E64" s="8">
-        <v>0</v>
-      </c>
-      <c r="F64" s="8">
-        <v>0</v>
-      </c>
-      <c r="G64" s="9">
+      <c r="G64" s="8">
+        <v>0</v>
+      </c>
+      <c r="H64" s="8">
+        <v>0</v>
+      </c>
+      <c r="I64" s="9">
         <v>38</v>
       </c>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A65" s="7">
         <v>44625</v>
       </c>
-      <c r="B65" s="8">
+      <c r="B65" s="21">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="C65" s="21">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="D65" s="8">
         <v>5746.1</v>
       </c>
-      <c r="C65" s="8">
+      <c r="E65" s="8">
         <v>4348.95</v>
       </c>
-      <c r="D65" s="8">
+      <c r="F65" s="8">
         <v>1397.15</v>
       </c>
-      <c r="E65" s="8">
-        <v>0</v>
-      </c>
-      <c r="F65" s="8">
-        <v>0</v>
-      </c>
-      <c r="G65" s="9">
+      <c r="G65" s="8">
+        <v>0</v>
+      </c>
+      <c r="H65" s="8">
+        <v>0</v>
+      </c>
+      <c r="I65" s="9">
         <v>48</v>
       </c>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A66" s="7">
         <v>44626</v>
       </c>
-      <c r="B66" s="8">
+      <c r="B66" s="21">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="C66" s="21">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="D66" s="8">
         <v>3095.82</v>
       </c>
-      <c r="C66" s="8">
+      <c r="E66" s="8">
         <v>2103.2800000000002</v>
       </c>
-      <c r="D66" s="8">
+      <c r="F66" s="8">
         <v>992.54</v>
       </c>
-      <c r="E66" s="8">
-        <v>0</v>
-      </c>
-      <c r="F66" s="8">
+      <c r="G66" s="8">
+        <v>0</v>
+      </c>
+      <c r="H66" s="8">
         <v>1751.75</v>
       </c>
-      <c r="G66" s="9">
+      <c r="I66" s="9">
         <v>28</v>
       </c>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A67" s="7">
         <v>44627</v>
       </c>
-      <c r="B67" s="8">
+      <c r="B67" s="21">
+        <f t="shared" ref="B67:B130" si="4">MONTH(A67)</f>
+        <v>3</v>
+      </c>
+      <c r="C67" s="21">
+        <f t="shared" ref="C67:C130" si="5">WEEKDAY(A67,2)</f>
+        <v>1</v>
+      </c>
+      <c r="D67" s="8">
         <v>3740.32</v>
       </c>
-      <c r="C67" s="8">
+      <c r="E67" s="8">
         <v>3377.27</v>
       </c>
-      <c r="D67" s="8">
+      <c r="F67" s="8">
         <v>363.05</v>
       </c>
-      <c r="E67" s="8">
-        <v>0</v>
-      </c>
-      <c r="F67" s="8">
+      <c r="G67" s="8">
+        <v>0</v>
+      </c>
+      <c r="H67" s="8">
         <v>2132.7800000000002</v>
       </c>
-      <c r="G67" s="9">
+      <c r="I67" s="9">
         <v>40</v>
       </c>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A68" s="7">
         <v>44628</v>
       </c>
-      <c r="B68" s="8">
+      <c r="B68" s="21">
+        <f t="shared" si="4"/>
+        <v>3</v>
+      </c>
+      <c r="C68" s="21">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="D68" s="8">
         <v>5725.4</v>
       </c>
-      <c r="C68" s="8">
+      <c r="E68" s="8">
         <v>4397.01</v>
       </c>
-      <c r="D68" s="8">
+      <c r="F68" s="8">
         <v>1328.39</v>
       </c>
-      <c r="E68" s="8">
-        <v>0</v>
-      </c>
-      <c r="F68" s="8">
+      <c r="G68" s="8">
+        <v>0</v>
+      </c>
+      <c r="H68" s="8">
         <v>3161.2</v>
       </c>
-      <c r="G68" s="9">
+      <c r="I68" s="9">
         <v>40</v>
       </c>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A69" s="7">
         <v>44629</v>
       </c>
-      <c r="B69" s="8">
+      <c r="B69" s="21">
+        <f t="shared" si="4"/>
+        <v>3</v>
+      </c>
+      <c r="C69" s="21">
+        <f t="shared" si="5"/>
+        <v>3</v>
+      </c>
+      <c r="D69" s="8">
         <v>2361.6999999999998</v>
       </c>
-      <c r="C69" s="8">
+      <c r="E69" s="8">
         <v>2361.6999999999998</v>
       </c>
-      <c r="D69" s="8">
-        <v>0</v>
-      </c>
-      <c r="E69" s="8">
-        <v>0</v>
-      </c>
       <c r="F69" s="8">
+        <v>0</v>
+      </c>
+      <c r="G69" s="8">
+        <v>0</v>
+      </c>
+      <c r="H69" s="8">
         <v>1436.16</v>
       </c>
-      <c r="G69" s="9">
+      <c r="I69" s="9">
         <v>29</v>
       </c>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A70" s="7">
         <v>44630</v>
       </c>
-      <c r="B70" s="8">
+      <c r="B70" s="21">
+        <f t="shared" si="4"/>
+        <v>3</v>
+      </c>
+      <c r="C70" s="21">
+        <f t="shared" si="5"/>
+        <v>4</v>
+      </c>
+      <c r="D70" s="8">
         <v>3606.48</v>
       </c>
-      <c r="C70" s="8">
+      <c r="E70" s="8">
         <v>3297.16</v>
       </c>
-      <c r="D70" s="8">
+      <c r="F70" s="8">
         <v>309.32</v>
       </c>
-      <c r="E70" s="8">
-        <v>0</v>
-      </c>
-      <c r="F70" s="8">
+      <c r="G70" s="8">
+        <v>0</v>
+      </c>
+      <c r="H70" s="8">
         <v>2165.2199999999998</v>
       </c>
-      <c r="G70" s="9">
+      <c r="I70" s="9">
         <v>44</v>
       </c>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A71" s="7">
         <v>44631</v>
       </c>
-      <c r="B71" s="8">
+      <c r="B71" s="21">
+        <f t="shared" si="4"/>
+        <v>3</v>
+      </c>
+      <c r="C71" s="21">
+        <f t="shared" si="5"/>
+        <v>5</v>
+      </c>
+      <c r="D71" s="8">
         <v>4566.46</v>
       </c>
-      <c r="C71" s="8">
+      <c r="E71" s="8">
         <v>3666.12</v>
       </c>
-      <c r="D71" s="8">
+      <c r="F71" s="8">
         <v>725.34</v>
       </c>
-      <c r="E71" s="8">
+      <c r="G71" s="8">
         <v>175</v>
       </c>
-      <c r="F71" s="8">
+      <c r="H71" s="8">
         <v>2708.65</v>
       </c>
-      <c r="G71" s="9">
+      <c r="I71" s="9">
         <v>41</v>
       </c>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A72" s="7">
         <v>44632</v>
       </c>
-      <c r="B72" s="8">
+      <c r="B72" s="21">
+        <f t="shared" si="4"/>
+        <v>3</v>
+      </c>
+      <c r="C72" s="21">
+        <f t="shared" si="5"/>
+        <v>6</v>
+      </c>
+      <c r="D72" s="8">
         <v>2883.33</v>
       </c>
-      <c r="C72" s="8">
+      <c r="E72" s="8">
         <v>2424.5</v>
       </c>
-      <c r="D72" s="8">
+      <c r="F72" s="8">
         <v>458.83</v>
       </c>
-      <c r="E72" s="8">
-        <v>0</v>
-      </c>
-      <c r="F72" s="8">
+      <c r="G72" s="8">
+        <v>0</v>
+      </c>
+      <c r="H72" s="8">
         <v>1764.21</v>
       </c>
-      <c r="G72" s="9">
+      <c r="I72" s="9">
         <v>28</v>
       </c>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A73" s="7">
         <v>44633</v>
       </c>
-      <c r="B73" s="8">
+      <c r="B73" s="21">
+        <f t="shared" si="4"/>
+        <v>3</v>
+      </c>
+      <c r="C73" s="21">
+        <f t="shared" si="5"/>
+        <v>7</v>
+      </c>
+      <c r="D73" s="8">
         <v>1853.87</v>
       </c>
-      <c r="C73" s="8">
+      <c r="E73" s="8">
         <v>1323.77</v>
       </c>
-      <c r="D73" s="8">
+      <c r="F73" s="8">
         <v>530.1</v>
       </c>
-      <c r="E73" s="8">
-        <v>0</v>
-      </c>
-      <c r="F73" s="8">
+      <c r="G73" s="8">
+        <v>0</v>
+      </c>
+      <c r="H73" s="8">
         <v>1137.25</v>
       </c>
-      <c r="G73" s="9">
+      <c r="I73" s="9">
         <v>17</v>
       </c>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A74" s="7">
         <v>44634</v>
       </c>
-      <c r="B74" s="8">
+      <c r="B74" s="21">
+        <f t="shared" si="4"/>
+        <v>3</v>
+      </c>
+      <c r="C74" s="21">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="D74" s="8">
         <v>5483.77</v>
       </c>
-      <c r="C74" s="8">
+      <c r="E74" s="8">
         <v>3538.24</v>
       </c>
-      <c r="D74" s="8">
+      <c r="F74" s="8">
         <v>1945.53</v>
       </c>
-      <c r="E74" s="8">
-        <v>0</v>
-      </c>
-      <c r="F74" s="8">
+      <c r="G74" s="8">
+        <v>0</v>
+      </c>
+      <c r="H74" s="8">
         <v>3209.25</v>
       </c>
-      <c r="G74" s="9">
+      <c r="I74" s="9">
         <v>45</v>
       </c>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A75" s="7">
         <v>44635</v>
       </c>
-      <c r="B75" s="8">
+      <c r="B75" s="21">
+        <f t="shared" si="4"/>
+        <v>3</v>
+      </c>
+      <c r="C75" s="21">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="D75" s="8">
         <v>5135.18</v>
       </c>
-      <c r="C75" s="8">
+      <c r="E75" s="8">
         <v>4967.13</v>
       </c>
-      <c r="D75" s="8">
+      <c r="F75" s="8">
         <v>168.05</v>
       </c>
-      <c r="E75" s="8">
-        <v>0</v>
-      </c>
-      <c r="F75" s="8">
+      <c r="G75" s="8">
+        <v>0</v>
+      </c>
+      <c r="H75" s="8">
         <v>3103.21</v>
       </c>
-      <c r="G75" s="9">
+      <c r="I75" s="9">
         <v>40</v>
       </c>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A76" s="7">
         <v>44636</v>
       </c>
-      <c r="B76" s="8">
+      <c r="B76" s="21">
+        <f t="shared" si="4"/>
+        <v>3</v>
+      </c>
+      <c r="C76" s="21">
+        <f t="shared" si="5"/>
+        <v>3</v>
+      </c>
+      <c r="D76" s="8">
         <v>3445.95</v>
       </c>
-      <c r="C76" s="8">
+      <c r="E76" s="8">
         <v>3445.95</v>
       </c>
-      <c r="D76" s="8">
-        <v>0</v>
-      </c>
-      <c r="E76" s="8">
-        <v>0</v>
-      </c>
       <c r="F76" s="8">
+        <v>0</v>
+      </c>
+      <c r="G76" s="8">
+        <v>0</v>
+      </c>
+      <c r="H76" s="8">
         <v>2116.91</v>
       </c>
-      <c r="G76" s="9">
+      <c r="I76" s="9">
         <v>28</v>
       </c>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A77" s="7">
         <v>44637</v>
       </c>
-      <c r="B77" s="8">
+      <c r="B77" s="21">
+        <f t="shared" si="4"/>
+        <v>3</v>
+      </c>
+      <c r="C77" s="21">
+        <f t="shared" si="5"/>
+        <v>4</v>
+      </c>
+      <c r="D77" s="8">
         <v>4681.26</v>
       </c>
-      <c r="C77" s="8">
+      <c r="E77" s="8">
         <v>3801.2</v>
       </c>
-      <c r="D77" s="8">
+      <c r="F77" s="8">
         <v>880.06</v>
       </c>
-      <c r="E77" s="8">
-        <v>0</v>
-      </c>
-      <c r="F77" s="8">
+      <c r="G77" s="8">
+        <v>0</v>
+      </c>
+      <c r="H77" s="8">
         <v>2789.94</v>
       </c>
-      <c r="G77" s="9">
+      <c r="I77" s="9">
         <v>33</v>
       </c>
     </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A78" s="7">
         <v>44638</v>
       </c>
-      <c r="B78" s="8">
+      <c r="B78" s="21">
+        <f t="shared" si="4"/>
+        <v>3</v>
+      </c>
+      <c r="C78" s="21">
+        <f t="shared" si="5"/>
+        <v>5</v>
+      </c>
+      <c r="D78" s="8">
         <v>4252.0200000000004</v>
       </c>
-      <c r="C78" s="8">
+      <c r="E78" s="8">
         <v>3042.13</v>
       </c>
-      <c r="D78" s="8">
+      <c r="F78" s="8">
         <v>1209.8900000000001</v>
       </c>
-      <c r="E78" s="8">
-        <v>0</v>
-      </c>
-      <c r="F78" s="8">
+      <c r="G78" s="8">
+        <v>0</v>
+      </c>
+      <c r="H78" s="8">
         <v>2512.66</v>
       </c>
-      <c r="G78" s="9">
+      <c r="I78" s="9">
         <v>40</v>
       </c>
     </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A79" s="7">
         <v>44639</v>
       </c>
-      <c r="B79" s="8">
+      <c r="B79" s="21">
+        <f t="shared" si="4"/>
+        <v>3</v>
+      </c>
+      <c r="C79" s="21">
+        <f t="shared" si="5"/>
+        <v>6</v>
+      </c>
+      <c r="D79" s="8">
         <v>3686.54</v>
       </c>
-      <c r="C79" s="8">
+      <c r="E79" s="8">
         <v>3434.56</v>
       </c>
-      <c r="D79" s="8">
+      <c r="F79" s="8">
         <v>251.98</v>
       </c>
-      <c r="E79" s="8">
-        <v>0</v>
-      </c>
-      <c r="F79" s="8">
+      <c r="G79" s="8">
+        <v>0</v>
+      </c>
+      <c r="H79" s="8">
         <v>2280.5</v>
       </c>
-      <c r="G79" s="9">
+      <c r="I79" s="9">
         <v>38</v>
       </c>
     </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A80" s="7">
         <v>44640</v>
       </c>
-      <c r="B80" s="8">
+      <c r="B80" s="21">
+        <f t="shared" si="4"/>
+        <v>3</v>
+      </c>
+      <c r="C80" s="21">
+        <f t="shared" si="5"/>
+        <v>7</v>
+      </c>
+      <c r="D80" s="8">
         <v>3334.67</v>
       </c>
-      <c r="C80" s="8">
+      <c r="E80" s="8">
         <v>2580.8000000000002</v>
       </c>
-      <c r="D80" s="8">
+      <c r="F80" s="8">
         <v>753.87</v>
       </c>
-      <c r="E80" s="8">
-        <v>0</v>
-      </c>
-      <c r="F80" s="8">
+      <c r="G80" s="8">
+        <v>0</v>
+      </c>
+      <c r="H80" s="8">
         <v>2009.86</v>
       </c>
-      <c r="G80" s="9">
+      <c r="I80" s="9">
         <v>32</v>
       </c>
     </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A81" s="7">
         <v>44641</v>
       </c>
-      <c r="B81" s="8">
+      <c r="B81" s="21">
+        <f t="shared" si="4"/>
+        <v>3</v>
+      </c>
+      <c r="C81" s="21">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="D81" s="8">
         <v>3020.49</v>
       </c>
-      <c r="C81" s="8">
+      <c r="E81" s="8">
         <v>3020.49</v>
       </c>
-      <c r="D81" s="8">
-        <v>0</v>
-      </c>
-      <c r="E81" s="8">
-        <v>0</v>
-      </c>
       <c r="F81" s="8">
+        <v>0</v>
+      </c>
+      <c r="G81" s="8">
+        <v>0</v>
+      </c>
+      <c r="H81" s="8">
         <v>1712.65</v>
       </c>
-      <c r="G81" s="9">
+      <c r="I81" s="9">
         <v>31</v>
       </c>
     </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A82" s="7">
         <v>44642</v>
       </c>
-      <c r="B82" s="8">
+      <c r="B82" s="21">
+        <f t="shared" si="4"/>
+        <v>3</v>
+      </c>
+      <c r="C82" s="21">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="D82" s="8">
         <v>1648.64</v>
       </c>
-      <c r="C82" s="8">
+      <c r="E82" s="8">
         <v>1615.65</v>
       </c>
-      <c r="D82" s="8">
+      <c r="F82" s="8">
         <v>32.99</v>
       </c>
-      <c r="E82" s="8">
-        <v>0</v>
-      </c>
-      <c r="F82" s="8">
+      <c r="G82" s="8">
+        <v>0</v>
+      </c>
+      <c r="H82" s="8">
         <v>1045.55</v>
       </c>
-      <c r="G82" s="9">
+      <c r="I82" s="9">
         <v>27</v>
       </c>
     </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A83" s="7">
         <v>44643</v>
       </c>
-      <c r="B83" s="8">
+      <c r="B83" s="21">
+        <f t="shared" si="4"/>
+        <v>3</v>
+      </c>
+      <c r="C83" s="21">
+        <f t="shared" si="5"/>
+        <v>3</v>
+      </c>
+      <c r="D83" s="8">
         <v>2574.2399999999998</v>
       </c>
-      <c r="C83" s="8">
+      <c r="E83" s="8">
         <v>2371.16</v>
       </c>
-      <c r="D83" s="8">
+      <c r="F83" s="8">
         <v>203.08</v>
       </c>
-      <c r="E83" s="8">
-        <v>0</v>
-      </c>
-      <c r="F83" s="8">
+      <c r="G83" s="8">
+        <v>0</v>
+      </c>
+      <c r="H83" s="8">
         <v>1536.1</v>
       </c>
-      <c r="G83" s="9">
+      <c r="I83" s="9">
         <v>27</v>
       </c>
     </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A84" s="7">
         <v>44644</v>
       </c>
-      <c r="B84" s="8">
+      <c r="B84" s="21">
+        <f t="shared" si="4"/>
+        <v>3</v>
+      </c>
+      <c r="C84" s="21">
+        <f t="shared" si="5"/>
+        <v>4</v>
+      </c>
+      <c r="D84" s="8">
         <v>2477.08</v>
       </c>
-      <c r="C84" s="8">
+      <c r="E84" s="8">
         <v>2477.08</v>
       </c>
-      <c r="D84" s="8">
-        <v>0</v>
-      </c>
-      <c r="E84" s="8">
-        <v>0</v>
-      </c>
       <c r="F84" s="8">
+        <v>0</v>
+      </c>
+      <c r="G84" s="8">
+        <v>0</v>
+      </c>
+      <c r="H84" s="8">
         <v>1449.1</v>
       </c>
-      <c r="G84" s="9">
+      <c r="I84" s="9">
         <v>25</v>
       </c>
     </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A85" s="7">
         <v>44645</v>
       </c>
-      <c r="B85" s="8">
+      <c r="B85" s="21">
+        <f t="shared" si="4"/>
+        <v>3</v>
+      </c>
+      <c r="C85" s="21">
+        <f t="shared" si="5"/>
+        <v>5</v>
+      </c>
+      <c r="D85" s="8">
         <v>4972.6000000000004</v>
       </c>
-      <c r="C85" s="8">
+      <c r="E85" s="8">
         <v>4293.55</v>
       </c>
-      <c r="D85" s="8">
+      <c r="F85" s="8">
         <v>679.05</v>
       </c>
-      <c r="E85" s="8">
-        <v>0</v>
-      </c>
-      <c r="F85" s="8">
+      <c r="G85" s="8">
+        <v>0</v>
+      </c>
+      <c r="H85" s="8">
         <v>3010.9</v>
       </c>
-      <c r="G85" s="9">
+      <c r="I85" s="9">
         <v>46</v>
       </c>
     </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A86" s="7">
         <v>44646</v>
       </c>
-      <c r="B86" s="8">
+      <c r="B86" s="21">
+        <f t="shared" si="4"/>
+        <v>3</v>
+      </c>
+      <c r="C86" s="21">
+        <f t="shared" si="5"/>
+        <v>6</v>
+      </c>
+      <c r="D86" s="8">
         <v>5208.8999999999996</v>
       </c>
-      <c r="C86" s="8">
+      <c r="E86" s="8">
         <v>4718.82</v>
       </c>
-      <c r="D86" s="8">
+      <c r="F86" s="8">
         <v>490.08</v>
       </c>
-      <c r="E86" s="8">
-        <v>0</v>
-      </c>
-      <c r="F86" s="8">
+      <c r="G86" s="8">
+        <v>0</v>
+      </c>
+      <c r="H86" s="8">
         <v>3079.53</v>
       </c>
-      <c r="G86" s="9">
+      <c r="I86" s="9">
         <v>44</v>
       </c>
     </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A87" s="7">
         <v>44647</v>
       </c>
-      <c r="B87" s="8">
+      <c r="B87" s="21">
+        <f t="shared" si="4"/>
+        <v>3</v>
+      </c>
+      <c r="C87" s="21">
+        <f t="shared" si="5"/>
+        <v>7</v>
+      </c>
+      <c r="D87" s="8">
         <v>1700.68</v>
       </c>
-      <c r="C87" s="8">
+      <c r="E87" s="8">
         <v>1371.44</v>
       </c>
-      <c r="D87" s="8">
+      <c r="F87" s="8">
         <v>329.24</v>
       </c>
-      <c r="E87" s="8">
-        <v>0</v>
-      </c>
-      <c r="F87" s="8">
+      <c r="G87" s="8">
+        <v>0</v>
+      </c>
+      <c r="H87" s="8">
         <v>996.19</v>
       </c>
-      <c r="G87" s="9">
+      <c r="I87" s="9">
         <v>16</v>
       </c>
     </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A88" s="7">
         <v>44648</v>
       </c>
-      <c r="B88" s="8">
+      <c r="B88" s="21">
+        <f t="shared" si="4"/>
+        <v>3</v>
+      </c>
+      <c r="C88" s="21">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="D88" s="8">
         <v>4589.2700000000004</v>
       </c>
-      <c r="C88" s="8">
+      <c r="E88" s="8">
         <v>3800.38</v>
       </c>
-      <c r="D88" s="8">
+      <c r="F88" s="8">
         <v>788.89</v>
       </c>
-      <c r="E88" s="8">
-        <v>0</v>
-      </c>
-      <c r="F88" s="8">
+      <c r="G88" s="8">
+        <v>0</v>
+      </c>
+      <c r="H88" s="8">
         <v>2821.77</v>
       </c>
-      <c r="G88" s="9">
+      <c r="I88" s="9">
         <v>44</v>
       </c>
     </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A89" s="7">
         <v>44649</v>
       </c>
-      <c r="B89" s="8">
+      <c r="B89" s="21">
+        <f t="shared" si="4"/>
+        <v>3</v>
+      </c>
+      <c r="C89" s="21">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="D89" s="8">
         <v>3952.03</v>
       </c>
-      <c r="C89" s="8">
+      <c r="E89" s="8">
         <v>3196.76</v>
       </c>
-      <c r="D89" s="8">
+      <c r="F89" s="8">
         <v>755.27</v>
       </c>
-      <c r="E89" s="8">
-        <v>0</v>
-      </c>
-      <c r="F89" s="8">
+      <c r="G89" s="8">
+        <v>0</v>
+      </c>
+      <c r="H89" s="8">
         <v>2391.38</v>
       </c>
-      <c r="G89" s="9">
+      <c r="I89" s="9">
         <v>39</v>
       </c>
     </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A90" s="7">
         <v>44650</v>
       </c>
-      <c r="B90" s="8">
+      <c r="B90" s="21">
+        <f t="shared" si="4"/>
+        <v>3</v>
+      </c>
+      <c r="C90" s="21">
+        <f t="shared" si="5"/>
+        <v>3</v>
+      </c>
+      <c r="D90" s="8">
         <v>2922.44</v>
       </c>
-      <c r="C90" s="8">
+      <c r="E90" s="8">
         <v>2621.94</v>
       </c>
-      <c r="D90" s="8">
+      <c r="F90" s="8">
         <v>300.5</v>
       </c>
-      <c r="E90" s="8">
-        <v>0</v>
-      </c>
-      <c r="F90" s="8">
+      <c r="G90" s="8">
+        <v>0</v>
+      </c>
+      <c r="H90" s="8">
         <v>1680.93</v>
       </c>
-      <c r="G90" s="9">
+      <c r="I90" s="9">
         <v>29</v>
       </c>
     </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A91" s="7">
         <v>44651</v>
       </c>
-      <c r="B91" s="8">
+      <c r="B91" s="21">
+        <f t="shared" si="4"/>
+        <v>3</v>
+      </c>
+      <c r="C91" s="21">
+        <f t="shared" si="5"/>
+        <v>4</v>
+      </c>
+      <c r="D91" s="8">
         <v>5354.57</v>
       </c>
-      <c r="C91" s="8">
+      <c r="E91" s="8">
         <v>4756.67</v>
       </c>
-      <c r="D91" s="8">
+      <c r="F91" s="8">
         <v>597.9</v>
       </c>
-      <c r="E91" s="8">
-        <v>0</v>
-      </c>
-      <c r="F91" s="8">
+      <c r="G91" s="8">
+        <v>0</v>
+      </c>
+      <c r="H91" s="8">
         <v>3130.67</v>
       </c>
-      <c r="G91" s="9">
+      <c r="I91" s="9">
         <v>48</v>
       </c>
     </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A92" s="7">
         <v>44652</v>
       </c>
-      <c r="B92" s="8">
+      <c r="B92" s="21">
+        <f t="shared" si="4"/>
+        <v>4</v>
+      </c>
+      <c r="C92" s="21">
+        <f t="shared" si="5"/>
+        <v>5</v>
+      </c>
+      <c r="D92" s="8">
         <v>10255.379999999999</v>
       </c>
-      <c r="C92" s="8">
+      <c r="E92" s="8">
         <v>8344.65</v>
       </c>
-      <c r="D92" s="8">
+      <c r="F92" s="8">
         <v>1910.73</v>
       </c>
-      <c r="E92" s="8">
-        <v>0</v>
-      </c>
-      <c r="F92" s="8">
+      <c r="G92" s="8">
+        <v>0</v>
+      </c>
+      <c r="H92" s="8">
         <v>6062.86</v>
       </c>
-      <c r="G92" s="9">
+      <c r="I92" s="9">
         <v>73</v>
       </c>
     </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A93" s="7">
         <v>44653</v>
       </c>
-      <c r="B93" s="8">
+      <c r="B93" s="21">
+        <f t="shared" si="4"/>
+        <v>4</v>
+      </c>
+      <c r="C93" s="21">
+        <f t="shared" si="5"/>
+        <v>6</v>
+      </c>
+      <c r="D93" s="8">
         <v>3892.35</v>
       </c>
-      <c r="C93" s="8">
+      <c r="E93" s="8">
         <v>3256.02</v>
       </c>
-      <c r="D93" s="8">
+      <c r="F93" s="8">
         <v>636.33000000000004</v>
       </c>
-      <c r="E93" s="8">
-        <v>0</v>
-      </c>
-      <c r="F93" s="8">
+      <c r="G93" s="8">
+        <v>0</v>
+      </c>
+      <c r="H93" s="8">
         <v>2363.4</v>
       </c>
-      <c r="G93" s="9">
+      <c r="I93" s="9">
         <v>31</v>
       </c>
     </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A94" s="7">
         <v>44654</v>
       </c>
-      <c r="B94" s="8">
+      <c r="B94" s="21">
+        <f t="shared" si="4"/>
+        <v>4</v>
+      </c>
+      <c r="C94" s="21">
+        <f t="shared" si="5"/>
+        <v>7</v>
+      </c>
+      <c r="D94" s="8">
         <v>1394.7</v>
       </c>
-      <c r="C94" s="8">
+      <c r="E94" s="8">
         <v>1257.75</v>
       </c>
-      <c r="D94" s="8">
+      <c r="F94" s="8">
         <v>136.94999999999999</v>
       </c>
-      <c r="E94" s="8">
-        <v>0</v>
-      </c>
-      <c r="F94" s="8">
+      <c r="G94" s="8">
+        <v>0</v>
+      </c>
+      <c r="H94" s="8">
         <v>849.14</v>
       </c>
-      <c r="G94" s="9">
+      <c r="I94" s="9">
         <v>19</v>
       </c>
     </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A95" s="7">
         <v>44655</v>
       </c>
-      <c r="B95" s="8">
+      <c r="B95" s="21">
+        <f t="shared" si="4"/>
+        <v>4</v>
+      </c>
+      <c r="C95" s="21">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="D95" s="8">
         <v>2904.19</v>
       </c>
-      <c r="C95" s="8">
+      <c r="E95" s="8">
         <v>2723.13</v>
       </c>
-      <c r="D95" s="8">
+      <c r="F95" s="8">
         <v>181.06</v>
       </c>
-      <c r="E95" s="8">
-        <v>0</v>
-      </c>
-      <c r="F95" s="8">
+      <c r="G95" s="8">
+        <v>0</v>
+      </c>
+      <c r="H95" s="8">
         <v>1778.45</v>
       </c>
-      <c r="G95" s="9">
+      <c r="I95" s="9">
         <v>35</v>
       </c>
     </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A96" s="7">
         <v>44656</v>
       </c>
-      <c r="B96" s="8">
+      <c r="B96" s="21">
+        <f t="shared" si="4"/>
+        <v>4</v>
+      </c>
+      <c r="C96" s="21">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="D96" s="8">
         <v>3574.76</v>
       </c>
-      <c r="C96" s="8">
+      <c r="E96" s="8">
         <v>3106.79</v>
       </c>
-      <c r="D96" s="8">
+      <c r="F96" s="8">
         <v>467.97</v>
       </c>
-      <c r="E96" s="8">
-        <v>0</v>
-      </c>
-      <c r="F96" s="8">
+      <c r="G96" s="8">
+        <v>0</v>
+      </c>
+      <c r="H96" s="8">
         <v>2169.77</v>
       </c>
-      <c r="G96" s="9">
+      <c r="I96" s="9">
         <v>46</v>
       </c>
     </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A97" s="7">
         <v>44657</v>
       </c>
-      <c r="B97" s="8">
+      <c r="B97" s="21">
+        <f t="shared" si="4"/>
+        <v>4</v>
+      </c>
+      <c r="C97" s="21">
+        <f t="shared" si="5"/>
+        <v>3</v>
+      </c>
+      <c r="D97" s="8">
         <v>3552.24</v>
       </c>
-      <c r="C97" s="8">
+      <c r="E97" s="8">
         <v>3143.27</v>
       </c>
-      <c r="D97" s="8">
+      <c r="F97" s="8">
         <v>408.97</v>
       </c>
-      <c r="E97" s="8">
-        <v>0</v>
-      </c>
-      <c r="F97" s="8">
+      <c r="G97" s="8">
+        <v>0</v>
+      </c>
+      <c r="H97" s="8">
         <v>2140.11</v>
       </c>
-      <c r="G97" s="9">
+      <c r="I97" s="9">
         <v>32</v>
       </c>
     </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A98" s="7">
         <v>44658</v>
       </c>
-      <c r="B98" s="8">
+      <c r="B98" s="21">
+        <f t="shared" si="4"/>
+        <v>4</v>
+      </c>
+      <c r="C98" s="21">
+        <f t="shared" si="5"/>
+        <v>4</v>
+      </c>
+      <c r="D98" s="8">
         <v>4385.3500000000004</v>
       </c>
-      <c r="C98" s="8">
+      <c r="E98" s="8">
         <v>4385.3500000000004</v>
       </c>
-      <c r="D98" s="8">
-        <v>0</v>
-      </c>
-      <c r="E98" s="8">
-        <v>0</v>
-      </c>
       <c r="F98" s="8">
+        <v>0</v>
+      </c>
+      <c r="G98" s="8">
+        <v>0</v>
+      </c>
+      <c r="H98" s="8">
         <v>2619.86</v>
       </c>
-      <c r="G98" s="9">
+      <c r="I98" s="9">
         <v>36</v>
       </c>
     </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A99" s="7">
         <v>44659</v>
       </c>
-      <c r="B99" s="8">
+      <c r="B99" s="21">
+        <f t="shared" si="4"/>
+        <v>4</v>
+      </c>
+      <c r="C99" s="21">
+        <f t="shared" si="5"/>
+        <v>5</v>
+      </c>
+      <c r="D99" s="8">
         <v>4999.97</v>
       </c>
-      <c r="C99" s="8">
+      <c r="E99" s="8">
         <v>3970.51</v>
       </c>
-      <c r="D99" s="8">
+      <c r="F99" s="8">
         <v>1029.46</v>
       </c>
-      <c r="E99" s="8">
-        <v>0</v>
-      </c>
-      <c r="F99" s="8">
+      <c r="G99" s="8">
+        <v>0</v>
+      </c>
+      <c r="H99" s="8">
         <v>2937.99</v>
       </c>
-      <c r="G99" s="9">
+      <c r="I99" s="9">
         <v>39</v>
       </c>
     </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A100" s="7">
         <v>44660</v>
       </c>
-      <c r="B100" s="8">
+      <c r="B100" s="21">
+        <f t="shared" si="4"/>
+        <v>4</v>
+      </c>
+      <c r="C100" s="21">
+        <f t="shared" si="5"/>
+        <v>6</v>
+      </c>
+      <c r="D100" s="8">
         <v>4886.8999999999996</v>
       </c>
-      <c r="C100" s="8">
+      <c r="E100" s="8">
         <v>3893.99</v>
       </c>
-      <c r="D100" s="8">
+      <c r="F100" s="8">
         <v>992.91</v>
       </c>
-      <c r="E100" s="8">
-        <v>0</v>
-      </c>
-      <c r="F100" s="8">
+      <c r="G100" s="8">
+        <v>0</v>
+      </c>
+      <c r="H100" s="8">
         <v>2862.35</v>
       </c>
-      <c r="G100" s="9">
+      <c r="I100" s="9">
         <v>44</v>
       </c>
     </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A101" s="7">
         <v>44661</v>
       </c>
-      <c r="B101" s="8">
+      <c r="B101" s="21">
+        <f t="shared" si="4"/>
+        <v>4</v>
+      </c>
+      <c r="C101" s="21">
+        <f t="shared" si="5"/>
+        <v>7</v>
+      </c>
+      <c r="D101" s="8">
         <v>2396.5700000000002</v>
       </c>
-      <c r="C101" s="8">
+      <c r="E101" s="8">
         <v>1637.17</v>
       </c>
-      <c r="D101" s="8">
+      <c r="F101" s="8">
         <v>759.4</v>
       </c>
-      <c r="E101" s="8">
-        <v>0</v>
-      </c>
-      <c r="F101" s="8">
+      <c r="G101" s="8">
+        <v>0</v>
+      </c>
+      <c r="H101" s="8">
         <v>1412</v>
       </c>
-      <c r="G101" s="9">
+      <c r="I101" s="9">
         <v>21</v>
       </c>
     </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A102" s="7">
         <v>44662</v>
       </c>
-      <c r="B102" s="8">
+      <c r="B102" s="21">
+        <f t="shared" si="4"/>
+        <v>4</v>
+      </c>
+      <c r="C102" s="21">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="D102" s="8">
         <v>3934.62</v>
       </c>
-      <c r="C102" s="8">
+      <c r="E102" s="8">
         <v>3762.78</v>
       </c>
-      <c r="D102" s="8">
+      <c r="F102" s="8">
         <v>171.84</v>
       </c>
-      <c r="E102" s="8">
-        <v>0</v>
-      </c>
-      <c r="F102" s="8">
+      <c r="G102" s="8">
+        <v>0</v>
+      </c>
+      <c r="H102" s="8">
         <v>2347.96</v>
       </c>
-      <c r="G102" s="9">
+      <c r="I102" s="9">
         <v>45</v>
       </c>
     </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A103" s="7">
         <v>44663</v>
       </c>
-      <c r="B103" s="8">
+      <c r="B103" s="21">
+        <f t="shared" si="4"/>
+        <v>4</v>
+      </c>
+      <c r="C103" s="21">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="D103" s="8">
         <v>7285.53</v>
       </c>
-      <c r="C103" s="8">
+      <c r="E103" s="8">
         <v>6415.1</v>
       </c>
-      <c r="D103" s="8">
+      <c r="F103" s="8">
         <v>870.43</v>
       </c>
-      <c r="E103" s="8">
-        <v>0</v>
-      </c>
-      <c r="F103" s="8">
+      <c r="G103" s="8">
+        <v>0</v>
+      </c>
+      <c r="H103" s="8">
         <v>4354.87</v>
       </c>
-      <c r="G103" s="9">
+      <c r="I103" s="9">
         <v>61</v>
       </c>
     </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A104" s="7">
         <v>44664</v>
       </c>
-      <c r="B104" s="8">
+      <c r="B104" s="21">
+        <f t="shared" si="4"/>
+        <v>4</v>
+      </c>
+      <c r="C104" s="21">
+        <f t="shared" si="5"/>
+        <v>3</v>
+      </c>
+      <c r="D104" s="8">
         <v>7784.47</v>
       </c>
-      <c r="C104" s="8">
+      <c r="E104" s="8">
         <v>7167.97</v>
       </c>
-      <c r="D104" s="8">
+      <c r="F104" s="8">
         <v>616.5</v>
       </c>
-      <c r="E104" s="8">
-        <v>0</v>
-      </c>
-      <c r="F104" s="8">
+      <c r="G104" s="8">
+        <v>0</v>
+      </c>
+      <c r="H104" s="8">
         <v>4730.93</v>
       </c>
-      <c r="G104" s="9">
+      <c r="I104" s="9">
         <v>66</v>
       </c>
     </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A105" s="7">
         <v>44665</v>
       </c>
-      <c r="B105" s="8">
+      <c r="B105" s="21">
+        <f t="shared" si="4"/>
+        <v>4</v>
+      </c>
+      <c r="C105" s="21">
+        <f t="shared" si="5"/>
+        <v>4</v>
+      </c>
+      <c r="D105" s="8">
         <v>2113.21</v>
       </c>
-      <c r="C105" s="8">
+      <c r="E105" s="8">
         <v>1467.32</v>
       </c>
-      <c r="D105" s="8">
+      <c r="F105" s="8">
         <v>645.89</v>
       </c>
-      <c r="E105" s="8">
-        <v>0</v>
-      </c>
-      <c r="F105" s="8">
+      <c r="G105" s="8">
+        <v>0</v>
+      </c>
+      <c r="H105" s="8">
         <v>1275.03</v>
       </c>
-      <c r="G105" s="9">
+      <c r="I105" s="9">
         <v>22</v>
       </c>
     </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A106" s="7">
         <v>44666</v>
       </c>
-      <c r="B106" s="8">
+      <c r="B106" s="21">
+        <f t="shared" si="4"/>
+        <v>4</v>
+      </c>
+      <c r="C106" s="21">
+        <f t="shared" si="5"/>
+        <v>5</v>
+      </c>
+      <c r="D106" s="8">
         <v>2323.02</v>
       </c>
-      <c r="C106" s="8">
+      <c r="E106" s="8">
         <v>2107.75</v>
       </c>
-      <c r="D106" s="8">
+      <c r="F106" s="8">
         <v>215.27</v>
       </c>
-      <c r="E106" s="8">
-        <v>0</v>
-      </c>
-      <c r="F106" s="8">
+      <c r="G106" s="8">
+        <v>0</v>
+      </c>
+      <c r="H106" s="8">
         <v>1364.52</v>
       </c>
-      <c r="G106" s="9">
+      <c r="I106" s="9">
         <v>19</v>
       </c>
     </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A107" s="7">
         <v>44667</v>
       </c>
-      <c r="B107" s="8">
+      <c r="B107" s="21">
+        <f t="shared" si="4"/>
+        <v>4</v>
+      </c>
+      <c r="C107" s="21">
+        <f t="shared" si="5"/>
+        <v>6</v>
+      </c>
+      <c r="D107" s="8">
         <v>2517.63</v>
       </c>
-      <c r="C107" s="8">
+      <c r="E107" s="8">
         <v>1915.96</v>
       </c>
-      <c r="D107" s="8">
+      <c r="F107" s="8">
         <v>601.66999999999996</v>
       </c>
-      <c r="E107" s="8">
-        <v>0</v>
-      </c>
-      <c r="F107" s="8">
+      <c r="G107" s="8">
+        <v>0</v>
+      </c>
+      <c r="H107" s="8">
         <v>1519.54</v>
       </c>
-      <c r="G107" s="9">
+      <c r="I107" s="9">
         <v>30</v>
       </c>
     </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A108" s="7">
         <v>44668</v>
       </c>
-      <c r="B108" s="8">
+      <c r="B108" s="21">
+        <f t="shared" si="4"/>
+        <v>4</v>
+      </c>
+      <c r="C108" s="21">
+        <f t="shared" si="5"/>
+        <v>7</v>
+      </c>
+      <c r="D108" s="8">
         <v>3773.66</v>
       </c>
-      <c r="C108" s="8">
+      <c r="E108" s="8">
         <v>3511.46</v>
       </c>
-      <c r="D108" s="8">
+      <c r="F108" s="8">
         <v>262.2</v>
       </c>
-      <c r="E108" s="8">
-        <v>0</v>
-      </c>
-      <c r="F108" s="8">
+      <c r="G108" s="8">
+        <v>0</v>
+      </c>
+      <c r="H108" s="8">
         <v>2285.61</v>
       </c>
-      <c r="G108" s="9">
+      <c r="I108" s="9">
         <v>22</v>
       </c>
     </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A109" s="7">
         <v>44669</v>
       </c>
-      <c r="B109" s="8">
+      <c r="B109" s="21">
+        <f t="shared" si="4"/>
+        <v>4</v>
+      </c>
+      <c r="C109" s="21">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="D109" s="8">
         <v>4332.58</v>
       </c>
-      <c r="C109" s="8">
+      <c r="E109" s="8">
         <v>3719.02</v>
       </c>
-      <c r="D109" s="8">
+      <c r="F109" s="8">
         <v>613.55999999999995</v>
       </c>
-      <c r="E109" s="8">
-        <v>0</v>
-      </c>
-      <c r="F109" s="8">
+      <c r="G109" s="8">
+        <v>0</v>
+      </c>
+      <c r="H109" s="8">
         <v>2577.2800000000002</v>
       </c>
-      <c r="G109" s="9">
+      <c r="I109" s="9">
         <v>47</v>
       </c>
     </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A110" s="7">
         <v>44670</v>
       </c>
-      <c r="B110" s="8">
+      <c r="B110" s="21">
+        <f t="shared" si="4"/>
+        <v>4</v>
+      </c>
+      <c r="C110" s="21">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="D110" s="8">
         <v>4677.13</v>
       </c>
-      <c r="C110" s="8">
+      <c r="E110" s="8">
         <v>4677.13</v>
       </c>
-      <c r="D110" s="8">
-        <v>0</v>
-      </c>
-      <c r="E110" s="8">
-        <v>0</v>
-      </c>
       <c r="F110" s="8">
+        <v>0</v>
+      </c>
+      <c r="G110" s="8">
+        <v>0</v>
+      </c>
+      <c r="H110" s="8">
         <v>2738.63</v>
       </c>
-      <c r="G110" s="9">
+      <c r="I110" s="9">
         <v>57</v>
       </c>
     </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A111" s="7">
         <v>44671</v>
       </c>
-      <c r="B111" s="8">
+      <c r="B111" s="21">
+        <f t="shared" si="4"/>
+        <v>4</v>
+      </c>
+      <c r="C111" s="21">
+        <f t="shared" si="5"/>
+        <v>3</v>
+      </c>
+      <c r="D111" s="8">
         <v>7803.19</v>
       </c>
-      <c r="C111" s="8">
+      <c r="E111" s="8">
         <v>7326.64</v>
       </c>
-      <c r="D111" s="8">
+      <c r="F111" s="8">
         <v>476.55</v>
       </c>
-      <c r="E111" s="8">
-        <v>0</v>
-      </c>
-      <c r="F111" s="8">
+      <c r="G111" s="8">
+        <v>0</v>
+      </c>
+      <c r="H111" s="8">
         <v>4624.54</v>
       </c>
-      <c r="G111" s="9">
+      <c r="I111" s="9">
         <v>44</v>
       </c>
     </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A112" s="7">
         <v>44672</v>
       </c>
-      <c r="B112" s="8">
+      <c r="B112" s="21">
+        <f t="shared" si="4"/>
+        <v>4</v>
+      </c>
+      <c r="C112" s="21">
+        <f t="shared" si="5"/>
+        <v>4</v>
+      </c>
+      <c r="D112" s="8">
         <v>4054.63</v>
       </c>
-      <c r="C112" s="8">
+      <c r="E112" s="8">
         <v>3408.61</v>
       </c>
-      <c r="D112" s="8">
+      <c r="F112" s="8">
         <v>646.02</v>
       </c>
-      <c r="E112" s="8">
-        <v>0</v>
-      </c>
-      <c r="F112" s="8">
+      <c r="G112" s="8">
+        <v>0</v>
+      </c>
+      <c r="H112" s="8">
         <v>2478.44</v>
       </c>
-      <c r="G112" s="9">
+      <c r="I112" s="9">
         <v>42</v>
       </c>
     </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A113" s="7">
         <v>44673</v>
       </c>
-      <c r="B113" s="8">
+      <c r="B113" s="21">
+        <f t="shared" si="4"/>
+        <v>4</v>
+      </c>
+      <c r="C113" s="21">
+        <f t="shared" si="5"/>
+        <v>5</v>
+      </c>
+      <c r="D113" s="8">
         <v>3629.81</v>
       </c>
-      <c r="C113" s="8">
+      <c r="E113" s="8">
         <v>3038.84</v>
       </c>
-      <c r="D113" s="8">
+      <c r="F113" s="8">
         <v>590.97</v>
       </c>
-      <c r="E113" s="8">
-        <v>0</v>
-      </c>
-      <c r="F113" s="8">
+      <c r="G113" s="8">
+        <v>0</v>
+      </c>
+      <c r="H113" s="8">
         <v>2063.79</v>
       </c>
-      <c r="G113" s="9">
+      <c r="I113" s="9">
         <v>32</v>
       </c>
     </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A114" s="7">
         <v>44674</v>
       </c>
-      <c r="B114" s="8">
+      <c r="B114" s="21">
+        <f t="shared" si="4"/>
+        <v>4</v>
+      </c>
+      <c r="C114" s="21">
+        <f t="shared" si="5"/>
+        <v>6</v>
+      </c>
+      <c r="D114" s="8">
         <v>2972.21</v>
       </c>
-      <c r="C114" s="8">
+      <c r="E114" s="8">
         <v>2714.06</v>
       </c>
-      <c r="D114" s="8">
+      <c r="F114" s="8">
         <v>258.14999999999998</v>
       </c>
-      <c r="E114" s="8">
-        <v>0</v>
-      </c>
-      <c r="F114" s="8">
+      <c r="G114" s="8">
+        <v>0</v>
+      </c>
+      <c r="H114" s="8">
         <v>1788.48</v>
       </c>
-      <c r="G114" s="9">
+      <c r="I114" s="9">
         <v>37</v>
       </c>
     </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A115" s="7">
         <v>44675</v>
       </c>
-      <c r="B115" s="8">
+      <c r="B115" s="21">
+        <f t="shared" si="4"/>
+        <v>4</v>
+      </c>
+      <c r="C115" s="21">
+        <f t="shared" si="5"/>
+        <v>7</v>
+      </c>
+      <c r="D115" s="8">
         <v>1497.54</v>
       </c>
-      <c r="C115" s="8">
+      <c r="E115" s="8">
         <v>1497.54</v>
       </c>
-      <c r="D115" s="8">
-        <v>0</v>
-      </c>
-      <c r="E115" s="8">
-        <v>0</v>
-      </c>
       <c r="F115" s="8">
+        <v>0</v>
+      </c>
+      <c r="G115" s="8">
+        <v>0</v>
+      </c>
+      <c r="H115" s="8">
         <v>882.46</v>
       </c>
-      <c r="G115" s="9">
+      <c r="I115" s="9">
         <v>15</v>
       </c>
     </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A116" s="7">
         <v>44676</v>
       </c>
-      <c r="B116" s="8">
+      <c r="B116" s="21">
+        <f t="shared" si="4"/>
+        <v>4</v>
+      </c>
+      <c r="C116" s="21">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="D116" s="8">
         <v>3894.87</v>
       </c>
-      <c r="C116" s="8">
+      <c r="E116" s="8">
         <v>3577.5</v>
       </c>
-      <c r="D116" s="8">
+      <c r="F116" s="8">
         <v>317.37</v>
       </c>
-      <c r="E116" s="8">
-        <v>0</v>
-      </c>
-      <c r="F116" s="8">
+      <c r="G116" s="8">
+        <v>0</v>
+      </c>
+      <c r="H116" s="8">
         <v>2377.1</v>
       </c>
-      <c r="G116" s="9">
+      <c r="I116" s="9">
         <v>33</v>
       </c>
     </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A117" s="7">
         <v>44677</v>
       </c>
-      <c r="B117" s="8">
+      <c r="B117" s="21">
+        <f t="shared" si="4"/>
+        <v>4</v>
+      </c>
+      <c r="C117" s="21">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="D117" s="8">
         <v>2496.5700000000002</v>
       </c>
-      <c r="C117" s="8">
+      <c r="E117" s="8">
         <v>2496.5700000000002</v>
       </c>
-      <c r="D117" s="8">
-        <v>0</v>
-      </c>
-      <c r="E117" s="8">
-        <v>0</v>
-      </c>
       <c r="F117" s="8">
+        <v>0</v>
+      </c>
+      <c r="G117" s="8">
+        <v>0</v>
+      </c>
+      <c r="H117" s="8">
         <v>1464.89</v>
       </c>
-      <c r="G117" s="9">
+      <c r="I117" s="9">
         <v>25</v>
       </c>
     </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A118" s="7">
         <v>44678</v>
       </c>
-      <c r="B118" s="8">
+      <c r="B118" s="21">
+        <f t="shared" si="4"/>
+        <v>4</v>
+      </c>
+      <c r="C118" s="21">
+        <f t="shared" si="5"/>
+        <v>3</v>
+      </c>
+      <c r="D118" s="8">
         <v>2155.31</v>
       </c>
-      <c r="C118" s="8">
+      <c r="E118" s="8">
         <v>2126.83</v>
       </c>
-      <c r="D118" s="8">
+      <c r="F118" s="8">
         <v>28.48</v>
       </c>
-      <c r="E118" s="8">
-        <v>0</v>
-      </c>
-      <c r="F118" s="8">
+      <c r="G118" s="8">
+        <v>0</v>
+      </c>
+      <c r="H118" s="8">
         <v>1304.44</v>
       </c>
-      <c r="G118" s="9">
+      <c r="I118" s="9">
         <v>28</v>
       </c>
     </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A119" s="7">
         <v>44679</v>
       </c>
-      <c r="B119" s="8">
+      <c r="B119" s="21">
+        <f t="shared" si="4"/>
+        <v>4</v>
+      </c>
+      <c r="C119" s="21">
+        <f t="shared" si="5"/>
+        <v>4</v>
+      </c>
+      <c r="D119" s="8">
         <v>3407.9</v>
       </c>
-      <c r="C119" s="8">
+      <c r="E119" s="8">
         <v>2741.14</v>
       </c>
-      <c r="D119" s="8">
+      <c r="F119" s="8">
         <v>666.76</v>
       </c>
-      <c r="E119" s="8">
-        <v>0</v>
-      </c>
-      <c r="F119" s="8">
+      <c r="G119" s="8">
+        <v>0</v>
+      </c>
+      <c r="H119" s="8">
         <v>2015.66</v>
       </c>
-      <c r="G119" s="9">
+      <c r="I119" s="9">
         <v>36</v>
       </c>
     </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A120" s="7">
         <v>44680</v>
       </c>
-      <c r="B120" s="8">
+      <c r="B120" s="21">
+        <f t="shared" si="4"/>
+        <v>4</v>
+      </c>
+      <c r="C120" s="21">
+        <f t="shared" si="5"/>
+        <v>5</v>
+      </c>
+      <c r="D120" s="8">
         <v>2724.02</v>
       </c>
-      <c r="C120" s="8">
+      <c r="E120" s="8">
         <v>2616.0300000000002</v>
       </c>
-      <c r="D120" s="8">
+      <c r="F120" s="8">
         <v>107.99</v>
       </c>
-      <c r="E120" s="8">
-        <v>0</v>
-      </c>
-      <c r="F120" s="8">
+      <c r="G120" s="8">
+        <v>0</v>
+      </c>
+      <c r="H120" s="8">
         <v>1600.48</v>
       </c>
-      <c r="G120" s="9">
+      <c r="I120" s="9">
         <v>32</v>
       </c>
     </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A121" s="7">
         <v>44681</v>
       </c>
-      <c r="B121" s="8">
+      <c r="B121" s="21">
+        <f t="shared" si="4"/>
+        <v>4</v>
+      </c>
+      <c r="C121" s="21">
+        <f t="shared" si="5"/>
+        <v>6</v>
+      </c>
+      <c r="D121" s="8">
         <v>2936.9</v>
       </c>
-      <c r="C121" s="8">
+      <c r="E121" s="8">
         <v>2120.46</v>
       </c>
-      <c r="D121" s="8">
+      <c r="F121" s="8">
         <v>816.44</v>
       </c>
-      <c r="E121" s="8">
-        <v>0</v>
-      </c>
-      <c r="F121" s="8">
+      <c r="G121" s="8">
+        <v>0</v>
+      </c>
+      <c r="H121" s="8">
         <v>1733.86</v>
       </c>
-      <c r="G121" s="9">
+      <c r="I121" s="9">
         <v>31</v>
       </c>
     </row>
-    <row r="122" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A122" s="7">
         <v>44682</v>
       </c>
-      <c r="B122" s="8">
+      <c r="B122" s="21">
+        <f t="shared" si="4"/>
+        <v>5</v>
+      </c>
+      <c r="C122" s="21">
+        <f t="shared" si="5"/>
+        <v>7</v>
+      </c>
+      <c r="D122" s="8">
         <v>2299.4899999999998</v>
       </c>
-      <c r="C122" s="8">
+      <c r="E122" s="8">
         <v>1844.27</v>
       </c>
-      <c r="D122" s="8">
+      <c r="F122" s="8">
         <v>455.22</v>
       </c>
-      <c r="E122" s="8">
-        <v>0</v>
-      </c>
-      <c r="F122" s="8">
+      <c r="G122" s="8">
+        <v>0</v>
+      </c>
+      <c r="H122" s="8">
         <v>1358.02</v>
       </c>
-      <c r="G122" s="9">
+      <c r="I122" s="9">
         <v>25</v>
       </c>
     </row>
-    <row r="123" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A123" s="7">
         <v>44683</v>
       </c>
-      <c r="B123" s="8">
+      <c r="B123" s="21">
+        <f t="shared" si="4"/>
+        <v>5</v>
+      </c>
+      <c r="C123" s="21">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="D123" s="8">
         <v>5005.97</v>
       </c>
-      <c r="C123" s="8">
+      <c r="E123" s="8">
         <v>4914.97</v>
       </c>
-      <c r="D123" s="8">
+      <c r="F123" s="8">
         <v>91</v>
       </c>
-      <c r="E123" s="8">
-        <v>0</v>
-      </c>
-      <c r="F123" s="8">
+      <c r="G123" s="8">
+        <v>0</v>
+      </c>
+      <c r="H123" s="8">
         <v>2991.38</v>
       </c>
-      <c r="G123" s="9">
+      <c r="I123" s="9">
         <v>44</v>
       </c>
     </row>
-    <row r="124" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A124" s="7">
         <v>44684</v>
       </c>
-      <c r="B124" s="8">
+      <c r="B124" s="21">
+        <f t="shared" si="4"/>
+        <v>5</v>
+      </c>
+      <c r="C124" s="21">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="D124" s="8">
         <v>3559.06</v>
       </c>
-      <c r="C124" s="8">
+      <c r="E124" s="8">
         <v>3026.82</v>
       </c>
-      <c r="D124" s="8">
+      <c r="F124" s="8">
         <v>532.24</v>
       </c>
-      <c r="E124" s="8">
-        <v>0</v>
-      </c>
-      <c r="F124" s="8">
+      <c r="G124" s="8">
+        <v>0</v>
+      </c>
+      <c r="H124" s="8">
         <v>2125.69</v>
       </c>
-      <c r="G124" s="9">
+      <c r="I124" s="9">
         <v>35</v>
       </c>
     </row>
-    <row r="125" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A125" s="7">
         <v>44685</v>
       </c>
-      <c r="B125" s="8">
+      <c r="B125" s="21">
+        <f t="shared" si="4"/>
+        <v>5</v>
+      </c>
+      <c r="C125" s="21">
+        <f t="shared" si="5"/>
+        <v>3</v>
+      </c>
+      <c r="D125" s="8">
         <v>3769.1</v>
       </c>
-      <c r="C125" s="8">
+      <c r="E125" s="8">
         <v>3769.1</v>
       </c>
-      <c r="D125" s="8">
-        <v>0</v>
-      </c>
-      <c r="E125" s="8">
-        <v>0</v>
-      </c>
       <c r="F125" s="8">
+        <v>0</v>
+      </c>
+      <c r="G125" s="8">
+        <v>0</v>
+      </c>
+      <c r="H125" s="8">
         <v>2195.29</v>
       </c>
-      <c r="G125" s="9">
+      <c r="I125" s="9">
         <v>31</v>
       </c>
     </row>
-    <row r="126" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A126" s="7">
         <v>44686</v>
       </c>
-      <c r="B126" s="8">
+      <c r="B126" s="21">
+        <f t="shared" si="4"/>
+        <v>5</v>
+      </c>
+      <c r="C126" s="21">
+        <f t="shared" si="5"/>
+        <v>4</v>
+      </c>
+      <c r="D126" s="8">
         <v>4005.34</v>
       </c>
-      <c r="C126" s="8">
+      <c r="E126" s="8">
         <v>3073.37</v>
       </c>
-      <c r="D126" s="8">
+      <c r="F126" s="8">
         <v>931.97</v>
       </c>
-      <c r="E126" s="8">
-        <v>0</v>
-      </c>
-      <c r="F126" s="8">
+      <c r="G126" s="8">
+        <v>0</v>
+      </c>
+      <c r="H126" s="8">
         <v>2362.7600000000002</v>
       </c>
-      <c r="G126" s="9">
+      <c r="I126" s="9">
         <v>45</v>
       </c>
     </row>
-    <row r="127" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A127" s="7">
         <v>44687</v>
       </c>
-      <c r="B127" s="8">
+      <c r="B127" s="21">
+        <f t="shared" si="4"/>
+        <v>5</v>
+      </c>
+      <c r="C127" s="21">
+        <f t="shared" si="5"/>
+        <v>5</v>
+      </c>
+      <c r="D127" s="8">
         <v>3641.77</v>
       </c>
-      <c r="C127" s="8">
+      <c r="E127" s="8">
         <v>3097.47</v>
       </c>
-      <c r="D127" s="8">
+      <c r="F127" s="8">
         <v>544.29999999999995</v>
       </c>
-      <c r="E127" s="8">
-        <v>0</v>
-      </c>
-      <c r="F127" s="8">
+      <c r="G127" s="8">
+        <v>0</v>
+      </c>
+      <c r="H127" s="8">
         <v>2215.27</v>
       </c>
-      <c r="G127" s="9">
+      <c r="I127" s="9">
         <v>36</v>
       </c>
     </row>
-    <row r="128" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A128" s="7">
         <v>44688</v>
       </c>
-      <c r="B128" s="8">
+      <c r="B128" s="21">
+        <f t="shared" si="4"/>
+        <v>5</v>
+      </c>
+      <c r="C128" s="21">
+        <f t="shared" si="5"/>
+        <v>6</v>
+      </c>
+      <c r="D128" s="8">
         <v>3771.87</v>
       </c>
-      <c r="C128" s="8">
+      <c r="E128" s="8">
         <v>3606.46</v>
       </c>
-      <c r="D128" s="8">
+      <c r="F128" s="8">
         <v>165.41</v>
       </c>
-      <c r="E128" s="8">
-        <v>0</v>
-      </c>
-      <c r="F128" s="8">
+      <c r="G128" s="8">
+        <v>0</v>
+      </c>
+      <c r="H128" s="8">
         <v>2210.9</v>
       </c>
-      <c r="G128" s="9">
+      <c r="I128" s="9">
         <v>37</v>
       </c>
     </row>
-    <row r="129" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A129" s="7">
         <v>44689</v>
       </c>
-      <c r="B129" s="8">
+      <c r="B129" s="21">
+        <f t="shared" si="4"/>
+        <v>5</v>
+      </c>
+      <c r="C129" s="21">
+        <f t="shared" si="5"/>
+        <v>7</v>
+      </c>
+      <c r="D129" s="8">
         <v>4323.88</v>
       </c>
-      <c r="C129" s="8">
+      <c r="E129" s="8">
         <v>4121.76</v>
       </c>
-      <c r="D129" s="8">
+      <c r="F129" s="8">
         <v>202.12</v>
       </c>
-      <c r="E129" s="8">
-        <v>0</v>
-      </c>
-      <c r="F129" s="8">
+      <c r="G129" s="8">
+        <v>0</v>
+      </c>
+      <c r="H129" s="8">
         <v>2500.27</v>
       </c>
-      <c r="G129" s="9">
+      <c r="I129" s="9">
         <v>34</v>
       </c>
     </row>
-    <row r="130" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A130" s="7">
         <v>44690</v>
       </c>
-      <c r="B130" s="8">
+      <c r="B130" s="21">
+        <f t="shared" si="4"/>
+        <v>5</v>
+      </c>
+      <c r="C130" s="21">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="D130" s="8">
         <v>6576.87</v>
       </c>
-      <c r="C130" s="8">
+      <c r="E130" s="8">
         <v>4606.3999999999996</v>
       </c>
-      <c r="D130" s="8">
+      <c r="F130" s="8">
         <v>1970.47</v>
       </c>
-      <c r="E130" s="8">
-        <v>0</v>
-      </c>
-      <c r="F130" s="8">
+      <c r="G130" s="8">
+        <v>0</v>
+      </c>
+      <c r="H130" s="8">
         <v>3815.44</v>
       </c>
-      <c r="G130" s="9">
+      <c r="I130" s="9">
         <v>47</v>
       </c>
     </row>
-    <row r="131" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A131" s="7">
         <v>44691</v>
       </c>
-      <c r="B131" s="8">
+      <c r="B131" s="21">
+        <f t="shared" ref="B131:B152" si="6">MONTH(A131)</f>
+        <v>5</v>
+      </c>
+      <c r="C131" s="21">
+        <f t="shared" ref="C131:C152" si="7">WEEKDAY(A131,2)</f>
+        <v>2</v>
+      </c>
+      <c r="D131" s="8">
         <v>4187.87</v>
       </c>
-      <c r="C131" s="8">
+      <c r="E131" s="8">
         <v>3274.09</v>
       </c>
-      <c r="D131" s="8">
+      <c r="F131" s="8">
         <v>546.08000000000004</v>
       </c>
-      <c r="E131" s="8">
+      <c r="G131" s="8">
         <v>367.7</v>
       </c>
-      <c r="F131" s="8">
+      <c r="H131" s="8">
         <v>2428.3000000000002</v>
       </c>
-      <c r="G131" s="9">
+      <c r="I131" s="9">
         <v>34</v>
       </c>
     </row>
-    <row r="132" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A132" s="7">
         <v>44692</v>
       </c>
-      <c r="B132" s="8">
+      <c r="B132" s="21">
+        <f t="shared" si="6"/>
+        <v>5</v>
+      </c>
+      <c r="C132" s="21">
+        <f t="shared" si="7"/>
+        <v>3</v>
+      </c>
+      <c r="D132" s="8">
         <v>2697</v>
       </c>
-      <c r="C132" s="8">
+      <c r="E132" s="8">
         <v>2265.39</v>
       </c>
-      <c r="D132" s="8">
+      <c r="F132" s="8">
         <v>431.61</v>
       </c>
-      <c r="E132" s="8">
-        <v>0</v>
-      </c>
-      <c r="F132" s="8">
+      <c r="G132" s="8">
+        <v>0</v>
+      </c>
+      <c r="H132" s="8">
         <v>1614.29</v>
       </c>
-      <c r="G132" s="9">
+      <c r="I132" s="9">
         <v>33</v>
       </c>
     </row>
-    <row r="133" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A133" s="7">
         <v>44693</v>
       </c>
-      <c r="B133" s="8">
+      <c r="B133" s="21">
+        <f t="shared" si="6"/>
+        <v>5</v>
+      </c>
+      <c r="C133" s="21">
+        <f t="shared" si="7"/>
+        <v>4</v>
+      </c>
+      <c r="D133" s="8">
         <v>5016.97</v>
       </c>
-      <c r="C133" s="8">
+      <c r="E133" s="8">
         <v>3192.75</v>
       </c>
-      <c r="D133" s="8">
+      <c r="F133" s="8">
         <v>1824.22</v>
       </c>
-      <c r="E133" s="8">
-        <v>0</v>
-      </c>
-      <c r="F133" s="8">
+      <c r="G133" s="8">
+        <v>0</v>
+      </c>
+      <c r="H133" s="8">
         <v>2935.17</v>
       </c>
-      <c r="G133" s="9">
+      <c r="I133" s="9">
         <v>48</v>
       </c>
     </row>
-    <row r="134" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A134" s="7">
         <v>44694</v>
       </c>
-      <c r="B134" s="8">
+      <c r="B134" s="21">
+        <f t="shared" si="6"/>
+        <v>5</v>
+      </c>
+      <c r="C134" s="21">
+        <f t="shared" si="7"/>
+        <v>5</v>
+      </c>
+      <c r="D134" s="8">
         <v>6800.97</v>
       </c>
-      <c r="C134" s="8">
+      <c r="E134" s="8">
         <v>5259.85</v>
       </c>
-      <c r="D134" s="8">
+      <c r="F134" s="8">
         <v>1541.12</v>
       </c>
-      <c r="E134" s="8">
-        <v>0</v>
-      </c>
-      <c r="F134" s="8">
+      <c r="G134" s="8">
+        <v>0</v>
+      </c>
+      <c r="H134" s="8">
         <v>4028.82</v>
       </c>
-      <c r="G134" s="9">
+      <c r="I134" s="9">
         <v>42</v>
       </c>
     </row>
-    <row r="135" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A135" s="7">
         <v>44695</v>
       </c>
-      <c r="B135" s="8">
+      <c r="B135" s="21">
+        <f t="shared" si="6"/>
+        <v>5</v>
+      </c>
+      <c r="C135" s="21">
+        <f t="shared" si="7"/>
+        <v>6</v>
+      </c>
+      <c r="D135" s="8">
         <v>6474.39</v>
       </c>
-      <c r="C135" s="8">
+      <c r="E135" s="8">
         <v>4850.71</v>
       </c>
-      <c r="D135" s="8">
+      <c r="F135" s="8">
         <v>1400.68</v>
       </c>
-      <c r="E135" s="8">
+      <c r="G135" s="8">
         <v>223</v>
       </c>
-      <c r="F135" s="8">
+      <c r="H135" s="8">
         <v>3760.14</v>
       </c>
-      <c r="G135" s="9">
+      <c r="I135" s="9">
         <v>45</v>
       </c>
     </row>
-    <row r="136" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A136" s="7">
         <v>44696</v>
       </c>
-      <c r="B136" s="8">
+      <c r="B136" s="21">
+        <f t="shared" si="6"/>
+        <v>5</v>
+      </c>
+      <c r="C136" s="21">
+        <f t="shared" si="7"/>
+        <v>7</v>
+      </c>
+      <c r="D136" s="8">
         <v>2278.7600000000002</v>
       </c>
-      <c r="C136" s="8">
+      <c r="E136" s="8">
         <v>2011.17</v>
       </c>
-      <c r="D136" s="8">
+      <c r="F136" s="8">
         <v>267.58999999999997</v>
       </c>
-      <c r="E136" s="8">
-        <v>0</v>
-      </c>
-      <c r="F136" s="8">
+      <c r="G136" s="8">
+        <v>0</v>
+      </c>
+      <c r="H136" s="8">
         <v>1349.34</v>
       </c>
-      <c r="G136" s="9">
+      <c r="I136" s="9">
         <v>26</v>
       </c>
     </row>
-    <row r="137" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A137" s="7">
         <v>44697</v>
       </c>
-      <c r="B137" s="8">
+      <c r="B137" s="21">
+        <f t="shared" si="6"/>
+        <v>5</v>
+      </c>
+      <c r="C137" s="21">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="D137" s="8">
         <v>6836.33</v>
       </c>
-      <c r="C137" s="8">
+      <c r="E137" s="8">
         <v>5687.98</v>
       </c>
-      <c r="D137" s="8">
+      <c r="F137" s="8">
         <v>1148.3499999999999</v>
       </c>
-      <c r="E137" s="8">
-        <v>0</v>
-      </c>
-      <c r="F137" s="8">
+      <c r="G137" s="8">
+        <v>0</v>
+      </c>
+      <c r="H137" s="8">
         <v>4091.26</v>
       </c>
-      <c r="G137" s="9">
+      <c r="I137" s="9">
         <v>60</v>
       </c>
     </row>
-    <row r="138" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A138" s="7">
         <v>44698</v>
       </c>
-      <c r="B138" s="8">
+      <c r="B138" s="21">
+        <f t="shared" si="6"/>
+        <v>5</v>
+      </c>
+      <c r="C138" s="21">
+        <f t="shared" si="7"/>
+        <v>2</v>
+      </c>
+      <c r="D138" s="8">
         <v>2978.96</v>
       </c>
-      <c r="C138" s="8">
+      <c r="E138" s="8">
         <v>2784.96</v>
       </c>
-      <c r="D138" s="8">
+      <c r="F138" s="8">
         <v>194</v>
       </c>
-      <c r="E138" s="8">
-        <v>0</v>
-      </c>
-      <c r="F138" s="8">
+      <c r="G138" s="8">
+        <v>0</v>
+      </c>
+      <c r="H138" s="8">
         <v>1801.97</v>
       </c>
-      <c r="G138" s="9">
+      <c r="I138" s="9">
         <v>36</v>
       </c>
     </row>
-    <row r="139" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A139" s="7">
         <v>44699</v>
       </c>
-      <c r="B139" s="8">
+      <c r="B139" s="21">
+        <f t="shared" si="6"/>
+        <v>5</v>
+      </c>
+      <c r="C139" s="21">
+        <f t="shared" si="7"/>
+        <v>3</v>
+      </c>
+      <c r="D139" s="8">
         <v>3994.34</v>
       </c>
-      <c r="C139" s="8">
+      <c r="E139" s="8">
         <v>2886.69</v>
       </c>
-      <c r="D139" s="8">
+      <c r="F139" s="8">
         <v>1107.6500000000001</v>
       </c>
-      <c r="E139" s="8">
-        <v>0</v>
-      </c>
-      <c r="F139" s="8">
+      <c r="G139" s="8">
+        <v>0</v>
+      </c>
+      <c r="H139" s="8">
         <v>2329.9499999999998</v>
       </c>
-      <c r="G139" s="9">
+      <c r="I139" s="9">
         <v>42</v>
       </c>
     </row>
-    <row r="140" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A140" s="7">
         <v>44700</v>
       </c>
-      <c r="B140" s="8">
+      <c r="B140" s="21">
+        <f t="shared" si="6"/>
+        <v>5</v>
+      </c>
+      <c r="C140" s="21">
+        <f t="shared" si="7"/>
+        <v>4</v>
+      </c>
+      <c r="D140" s="8">
         <v>3841.43</v>
       </c>
-      <c r="C140" s="8">
+      <c r="E140" s="8">
         <v>3668.32</v>
       </c>
-      <c r="D140" s="8">
+      <c r="F140" s="8">
         <v>173.11</v>
       </c>
-      <c r="E140" s="8">
-        <v>0</v>
-      </c>
-      <c r="F140" s="8">
+      <c r="G140" s="8">
+        <v>0</v>
+      </c>
+      <c r="H140" s="8">
         <v>2337.63</v>
       </c>
-      <c r="G140" s="9">
+      <c r="I140" s="9">
         <v>40</v>
       </c>
     </row>
-    <row r="141" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A141" s="7">
         <v>44701</v>
       </c>
-      <c r="B141" s="8">
+      <c r="B141" s="21">
+        <f t="shared" si="6"/>
+        <v>5</v>
+      </c>
+      <c r="C141" s="21">
+        <f t="shared" si="7"/>
+        <v>5</v>
+      </c>
+      <c r="D141" s="8">
         <v>5256.21</v>
       </c>
-      <c r="C141" s="8">
+      <c r="E141" s="8">
         <v>4466.4799999999996</v>
       </c>
-      <c r="D141" s="8">
+      <c r="F141" s="8">
         <v>318.81</v>
       </c>
-      <c r="E141" s="8">
+      <c r="G141" s="8">
         <v>470.92</v>
       </c>
-      <c r="F141" s="8">
+      <c r="H141" s="8">
         <v>3190.74</v>
       </c>
-      <c r="G141" s="9">
+      <c r="I141" s="9">
         <v>46</v>
       </c>
     </row>
-    <row r="142" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A142" s="7">
         <v>44702</v>
       </c>
-      <c r="B142" s="8">
+      <c r="B142" s="21">
+        <f t="shared" si="6"/>
+        <v>5</v>
+      </c>
+      <c r="C142" s="21">
+        <f t="shared" si="7"/>
+        <v>6</v>
+      </c>
+      <c r="D142" s="8">
         <v>4876.71</v>
       </c>
-      <c r="C142" s="8">
+      <c r="E142" s="8">
         <v>4139.45</v>
       </c>
-      <c r="D142" s="8">
+      <c r="F142" s="8">
         <v>737.26</v>
       </c>
-      <c r="E142" s="8">
-        <v>0</v>
-      </c>
-      <c r="F142" s="8">
+      <c r="G142" s="8">
+        <v>0</v>
+      </c>
+      <c r="H142" s="8">
         <v>2880.41</v>
       </c>
-      <c r="G142" s="9">
+      <c r="I142" s="9">
         <v>31</v>
       </c>
     </row>
-    <row r="143" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A143" s="7">
         <v>44703</v>
       </c>
-      <c r="B143" s="8">
+      <c r="B143" s="21">
+        <f t="shared" si="6"/>
+        <v>5</v>
+      </c>
+      <c r="C143" s="21">
+        <f t="shared" si="7"/>
+        <v>7</v>
+      </c>
+      <c r="D143" s="8">
         <v>3625.34</v>
       </c>
-      <c r="C143" s="8">
+      <c r="E143" s="8">
         <v>2363.54</v>
       </c>
-      <c r="D143" s="8">
+      <c r="F143" s="8">
         <v>1261.8</v>
       </c>
-      <c r="E143" s="8">
-        <v>0</v>
-      </c>
-      <c r="F143" s="8">
+      <c r="G143" s="8">
+        <v>0</v>
+      </c>
+      <c r="H143" s="8">
         <v>2172.88</v>
       </c>
-      <c r="G143" s="9">
+      <c r="I143" s="9">
         <v>24</v>
       </c>
     </row>
-    <row r="144" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A144" s="7">
         <v>44704</v>
       </c>
-      <c r="B144" s="8">
+      <c r="B144" s="21">
+        <f t="shared" si="6"/>
+        <v>5</v>
+      </c>
+      <c r="C144" s="21">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="D144" s="8">
         <v>2353.56</v>
       </c>
-      <c r="C144" s="8">
+      <c r="E144" s="8">
         <v>1970.94</v>
       </c>
-      <c r="D144" s="8">
+      <c r="F144" s="8">
         <v>382.62</v>
       </c>
-      <c r="E144" s="8">
-        <v>0</v>
-      </c>
-      <c r="F144" s="8">
+      <c r="G144" s="8">
+        <v>0</v>
+      </c>
+      <c r="H144" s="8">
         <v>1398.95</v>
       </c>
-      <c r="G144" s="9">
+      <c r="I144" s="9">
         <v>34</v>
       </c>
     </row>
-    <row r="145" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A145" s="7">
         <v>44705</v>
       </c>
-      <c r="B145" s="8">
+      <c r="B145" s="21">
+        <f t="shared" si="6"/>
+        <v>5</v>
+      </c>
+      <c r="C145" s="21">
+        <f t="shared" si="7"/>
+        <v>2</v>
+      </c>
+      <c r="D145" s="8">
         <v>2837.77</v>
       </c>
-      <c r="C145" s="8">
+      <c r="E145" s="8">
         <v>2560.34</v>
       </c>
-      <c r="D145" s="8">
+      <c r="F145" s="8">
         <v>277.43</v>
       </c>
-      <c r="E145" s="8">
-        <v>0</v>
-      </c>
-      <c r="F145" s="8">
+      <c r="G145" s="8">
+        <v>0</v>
+      </c>
+      <c r="H145" s="8">
         <v>1671.61</v>
       </c>
-      <c r="G145" s="9">
+      <c r="I145" s="9">
         <v>33</v>
       </c>
     </row>
-    <row r="146" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A146" s="7">
         <v>44706</v>
       </c>
-      <c r="B146" s="8">
+      <c r="B146" s="21">
+        <f t="shared" si="6"/>
+        <v>5</v>
+      </c>
+      <c r="C146" s="21">
+        <f t="shared" si="7"/>
+        <v>3</v>
+      </c>
+      <c r="D146" s="8">
         <v>6485.35</v>
       </c>
-      <c r="C146" s="8">
+      <c r="E146" s="8">
         <v>5601.1</v>
       </c>
-      <c r="D146" s="8">
+      <c r="F146" s="8">
         <v>884.25</v>
       </c>
-      <c r="E146" s="8">
-        <v>0</v>
-      </c>
-      <c r="F146" s="8">
+      <c r="G146" s="8">
+        <v>0</v>
+      </c>
+      <c r="H146" s="8">
         <v>3843.54</v>
       </c>
-      <c r="G146" s="9">
+      <c r="I146" s="9">
         <v>53</v>
       </c>
     </row>
-    <row r="147" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A147" s="7">
         <v>44707</v>
       </c>
-      <c r="B147" s="8">
+      <c r="B147" s="21">
+        <f t="shared" si="6"/>
+        <v>5</v>
+      </c>
+      <c r="C147" s="21">
+        <f t="shared" si="7"/>
+        <v>4</v>
+      </c>
+      <c r="D147" s="8">
         <v>4079.26</v>
       </c>
-      <c r="C147" s="8">
+      <c r="E147" s="8">
         <v>3574.25</v>
       </c>
-      <c r="D147" s="8">
+      <c r="F147" s="8">
         <v>505.01</v>
       </c>
-      <c r="E147" s="8">
-        <v>0</v>
-      </c>
-      <c r="F147" s="8">
+      <c r="G147" s="8">
+        <v>0</v>
+      </c>
+      <c r="H147" s="8">
         <v>2365.6</v>
       </c>
-      <c r="G147" s="9">
+      <c r="I147" s="9">
         <v>35</v>
       </c>
     </row>
-    <row r="148" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A148" s="7">
         <v>44708</v>
       </c>
-      <c r="B148" s="8">
+      <c r="B148" s="21">
+        <f t="shared" si="6"/>
+        <v>5</v>
+      </c>
+      <c r="C148" s="21">
+        <f t="shared" si="7"/>
+        <v>5</v>
+      </c>
+      <c r="D148" s="8">
         <v>6378.39</v>
       </c>
-      <c r="C148" s="8">
+      <c r="E148" s="8">
         <v>4568.8100000000004</v>
       </c>
-      <c r="D148" s="8">
+      <c r="F148" s="8">
         <v>903.56</v>
       </c>
-      <c r="E148" s="8">
+      <c r="G148" s="8">
         <v>906.02</v>
       </c>
-      <c r="F148" s="8">
+      <c r="H148" s="8">
         <v>3894.37</v>
       </c>
-      <c r="G148" s="9">
+      <c r="I148" s="9">
         <v>60</v>
       </c>
     </row>
-    <row r="149" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A149" s="7">
         <v>44709</v>
       </c>
-      <c r="B149" s="8">
+      <c r="B149" s="21">
+        <f t="shared" si="6"/>
+        <v>5</v>
+      </c>
+      <c r="C149" s="21">
+        <f t="shared" si="7"/>
+        <v>6</v>
+      </c>
+      <c r="D149" s="8">
         <v>3786.59</v>
       </c>
-      <c r="C149" s="8">
+      <c r="E149" s="8">
         <v>3228.34</v>
       </c>
-      <c r="D149" s="8">
+      <c r="F149" s="8">
         <v>376.56</v>
       </c>
-      <c r="E149" s="8">
+      <c r="G149" s="8">
         <v>181.69</v>
       </c>
-      <c r="F149" s="8">
+      <c r="H149" s="8">
         <v>2274.87</v>
       </c>
-      <c r="G149" s="9">
+      <c r="I149" s="9">
         <v>42</v>
       </c>
     </row>
-    <row r="150" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A150" s="7">
         <v>44710</v>
       </c>
-      <c r="B150" s="8">
+      <c r="B150" s="21">
+        <f t="shared" si="6"/>
+        <v>5</v>
+      </c>
+      <c r="C150" s="21">
+        <f t="shared" si="7"/>
+        <v>7</v>
+      </c>
+      <c r="D150" s="8">
         <v>3963.06</v>
       </c>
-      <c r="C150" s="8">
+      <c r="E150" s="8">
         <v>3963.06</v>
       </c>
-      <c r="D150" s="8">
-        <v>0</v>
-      </c>
-      <c r="E150" s="8">
-        <v>0</v>
-      </c>
       <c r="F150" s="8">
+        <v>0</v>
+      </c>
+      <c r="G150" s="8">
+        <v>0</v>
+      </c>
+      <c r="H150" s="8">
         <v>2283.02</v>
       </c>
-      <c r="G150" s="9">
+      <c r="I150" s="9">
         <v>34</v>
       </c>
     </row>
-    <row r="151" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A151" s="7">
         <v>44711</v>
       </c>
-      <c r="B151" s="8">
+      <c r="B151" s="21">
+        <f t="shared" si="6"/>
+        <v>5</v>
+      </c>
+      <c r="C151" s="21">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="D151" s="8">
         <v>4594.9449999999997</v>
       </c>
-      <c r="C151" s="8">
+      <c r="E151" s="8">
         <v>3829.46</v>
       </c>
-      <c r="D151" s="8">
+      <c r="F151" s="8">
         <v>765.48500000000001</v>
       </c>
-      <c r="E151" s="8">
-        <v>0</v>
-      </c>
-      <c r="F151" s="8">
+      <c r="G151" s="8">
+        <v>0</v>
+      </c>
+      <c r="H151" s="8">
         <v>2665.0681</v>
       </c>
-      <c r="G151" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="152" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I151" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="152" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A152" s="7">
         <v>44712</v>
       </c>
-      <c r="B152" s="8">
+      <c r="B152" s="21">
+        <f t="shared" si="6"/>
+        <v>5</v>
+      </c>
+      <c r="C152" s="21">
+        <f t="shared" si="7"/>
+        <v>2</v>
+      </c>
+      <c r="D152" s="8">
         <v>2908.3649999999998</v>
       </c>
-      <c r="C152" s="8">
+      <c r="E152" s="8">
         <v>2672.65</v>
       </c>
-      <c r="D152" s="8">
+      <c r="F152" s="8">
         <v>235.715</v>
       </c>
-      <c r="E152" s="8">
-        <v>0</v>
-      </c>
-      <c r="F152" s="8">
+      <c r="G152" s="8">
+        <v>0</v>
+      </c>
+      <c r="H152" s="8">
         <v>1657.7680499999999</v>
       </c>
-      <c r="G152" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="153" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I152" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="153" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A153"/>
     </row>
-    <row r="154" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A154"/>
     </row>
-    <row r="155" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A155"/>
     </row>
-    <row r="156" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A156"/>
     </row>
-    <row r="157" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A157"/>
     </row>
-    <row r="158" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A158"/>
     </row>
-    <row r="159" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A159"/>
     </row>
-    <row r="160" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A160"/>
     </row>
     <row r="161" spans="1:1" x14ac:dyDescent="0.25">
@@ -14182,7 +17036,7 @@
       <c r="A184"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="B2:B152">
+  <conditionalFormatting sqref="D2:D152">
     <cfRule type="iconSet" priority="1">
       <iconSet iconSet="3Arrows">
         <cfvo type="percent" val="0"/>
@@ -14195,12 +17049,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{287AA54F-B7DD-4E26-8150-25A96EE203F1}">
   <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14225,10 +17079,10 @@
       <c r="A2" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="B2" s="15">
+      <c r="B2" s="19">
         <v>22174.383600000001</v>
       </c>
-      <c r="C2" s="15">
+      <c r="C2" s="19">
         <v>23244.572400000001</v>
       </c>
     </row>
@@ -14236,10 +17090,10 @@
       <c r="A3" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="B3" s="15">
+      <c r="B3" s="19">
         <v>28333.934600000001</v>
       </c>
-      <c r="C3" s="15">
+      <c r="C3" s="19">
         <v>21584.245800000001</v>
       </c>
     </row>
@@ -14247,10 +17101,10 @@
       <c r="A4" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="B4" s="15">
+      <c r="B4" s="19">
         <v>14782.922399999999</v>
       </c>
-      <c r="C4" s="15">
+      <c r="C4" s="19">
         <v>19923.9192</v>
       </c>
     </row>
@@ -14258,10 +17112,10 @@
       <c r="A5" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="B5" s="15">
+      <c r="B5" s="19">
         <v>30797.755000000001</v>
       </c>
-      <c r="C5" s="15">
+      <c r="C5" s="19">
         <v>20477.361400000002</v>
       </c>
     </row>
@@ -14269,10 +17123,10 @@
       <c r="A6" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="B6" s="15">
+      <c r="B6" s="19">
         <v>27102.024399999998</v>
       </c>
-      <c r="C6" s="15">
+      <c r="C6" s="19">
         <v>25458.341199999999</v>
       </c>
     </row>
@@ -14280,10 +17134,10 @@
       <c r="A7" s="14" t="s">
         <v>56</v>
       </c>
-      <c r="B7" s="15">
+      <c r="B7" s="19">
         <v>24638.204000000002</v>
       </c>
-      <c r="C7" s="15">
+      <c r="C7" s="19">
         <v>22137.688000000002</v>
       </c>
     </row>
@@ -14300,12 +17154,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51A23CDF-F090-4714-AB49-78B50071C889}">
-  <dimension ref="A1:H6"/>
+  <dimension ref="A1:L6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:H6"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14313,9 +17167,12 @@
     <col min="1" max="1" width="23.7109375" customWidth="1"/>
     <col min="3" max="3" width="17.140625" customWidth="1"/>
     <col min="4" max="8" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.140625" customWidth="1"/>
+    <col min="11" max="11" width="17.140625" customWidth="1"/>
+    <col min="12" max="12" width="11.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
@@ -14341,7 +17198,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
         <v>19</v>
       </c>
@@ -14366,8 +17223,17 @@
       <c r="H2" s="8">
         <v>27973.243200000001</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J2" s="28" t="s">
+        <v>67</v>
+      </c>
+      <c r="K2" s="28" t="s">
+        <v>75</v>
+      </c>
+      <c r="L2" s="28" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
         <v>20</v>
       </c>
@@ -14392,8 +17258,19 @@
       <c r="H3" s="8">
         <v>26641.184000000001</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J3">
+        <v>2</v>
+      </c>
+      <c r="K3" t="str">
+        <f>VLOOKUP(J3,B1:H6,2,0)</f>
+        <v>MariaGonzález</v>
+      </c>
+      <c r="L3" s="25">
+        <f>HLOOKUP(L2,D1:H6,6,0)</f>
+        <v>30797.755000000001</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
         <v>21</v>
       </c>
@@ -14419,7 +17296,7 @@
         <v>30637.3616</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="9" t="s">
         <v>22</v>
       </c>
@@ -14445,7 +17322,7 @@
         <v>25309.124800000001</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="9" t="s">
         <v>23</v>
       </c>
@@ -14489,21 +17366,23 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{25B68A6B-4F66-49B3-AEDB-48F8AD760459}">
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:K6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+      <selection activeCell="D1" sqref="D1:F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="3" width="12.5703125" bestFit="1" customWidth="1"/>
     <col min="4" max="6" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="10" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="16.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="11" t="s">
         <v>29</v>
       </c>
@@ -14523,7 +17402,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="9">
         <v>1</v>
       </c>
@@ -14542,8 +17421,24 @@
       <c r="F2" s="8">
         <v>43116.86</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H2" s="25">
+        <f>IF(OR(A2=1,A2=2),C2,"Error")</f>
+        <v>123191.02</v>
+      </c>
+      <c r="I2" s="25">
+        <f>IF(AND(A2=1,B2=2022),C2,"Error")</f>
+        <v>123191.02</v>
+      </c>
+      <c r="J2" s="25">
+        <f>IF(B2=2022,SUM(D2:F2),0)-C2</f>
+        <v>9.9999999947613105E-3</v>
+      </c>
+      <c r="K2" t="str">
+        <f>IF(B2=2022,IF(C2&gt;120000,"Ventas exitosas","Mes de ventas bajas"),"Ventas de otro año")</f>
+        <v>Ventas exitosas</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="9">
         <v>2</v>
       </c>
@@ -14562,8 +17457,24 @@
       <c r="F3" s="8">
         <v>33078.1</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H3" s="25">
+        <f t="shared" ref="H3:H6" si="0">IF(OR(A3=1,A3=2),C3,"Error")</f>
+        <v>110688.44</v>
+      </c>
+      <c r="I3" s="25" t="str">
+        <f t="shared" ref="I3:I6" si="1">IF(AND(A3=1,B3=2022),C3,"Error")</f>
+        <v>Error</v>
+      </c>
+      <c r="J3" s="25">
+        <f t="shared" ref="J3:J6" si="2">IF(B3=2022,SUM(D3:F3),0)</f>
+        <v>110688.45000000001</v>
+      </c>
+      <c r="K3" t="str">
+        <f t="shared" ref="K3:K7" si="3">IF(B3=2022,IF(C3&gt;120000,"Ventas exitosas","Mes de ventas bajas"),"Ventas de otro año")</f>
+        <v>Mes de ventas bajas</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="9">
         <v>3</v>
       </c>
@@ -14582,8 +17493,24 @@
       <c r="F4" s="8">
         <v>40121.120000000003</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H4" s="25" t="str">
+        <f t="shared" si="0"/>
+        <v>Error</v>
+      </c>
+      <c r="I4" s="25" t="str">
+        <f t="shared" si="1"/>
+        <v>Error</v>
+      </c>
+      <c r="J4" s="25">
+        <f t="shared" si="2"/>
+        <v>121427.19999999998</v>
+      </c>
+      <c r="K4" t="str">
+        <f t="shared" si="3"/>
+        <v>Ventas exitosas</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="9">
         <v>4</v>
       </c>
@@ -14602,8 +17529,24 @@
       <c r="F5" s="8">
         <v>38483.050000000003</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H5" s="25" t="str">
+        <f t="shared" si="0"/>
+        <v>Error</v>
+      </c>
+      <c r="I5" s="25" t="str">
+        <f t="shared" si="1"/>
+        <v>Error</v>
+      </c>
+      <c r="J5" s="25">
+        <f t="shared" si="2"/>
+        <v>118557.22</v>
+      </c>
+      <c r="K5" t="str">
+        <f t="shared" si="3"/>
+        <v>Mes de ventas bajas</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="9">
         <v>5</v>
       </c>
@@ -14621,6 +17564,22 @@
       </c>
       <c r="F6" s="8">
         <v>48092.27</v>
+      </c>
+      <c r="H6" s="25" t="str">
+        <f t="shared" si="0"/>
+        <v>Error</v>
+      </c>
+      <c r="I6" s="25" t="str">
+        <f t="shared" si="1"/>
+        <v>Error</v>
+      </c>
+      <c r="J6" s="25">
+        <f t="shared" si="2"/>
+        <v>125702.62</v>
+      </c>
+      <c r="K6" t="str">
+        <f t="shared" si="3"/>
+        <v>Ventas exitosas</v>
       </c>
     </row>
   </sheetData>
@@ -14629,21 +17588,24 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8A9D3D7-F34D-4A34-8B58-0EC02683C78D}">
-  <dimension ref="A1:F10"/>
+  <dimension ref="A1:L10"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection sqref="A1:F10"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="14.28515625" customWidth="1"/>
     <col min="2" max="6" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13" customWidth="1"/>
+    <col min="10" max="10" width="10.42578125" customWidth="1"/>
+    <col min="12" max="12" width="9" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="12" t="s">
         <v>29</v>
       </c>
@@ -14663,7 +17625,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
         <v>40</v>
       </c>
@@ -14682,8 +17644,21 @@
       <c r="F2" s="8">
         <v>9280</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H2" t="str">
+        <f>INDEX(A1:F10,5,1)</f>
+        <v>Flete pedido</v>
+      </c>
+      <c r="J2" t="s">
+        <v>76</v>
+      </c>
+      <c r="K2" t="s">
+        <v>29</v>
+      </c>
+      <c r="L2" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
         <v>41</v>
       </c>
@@ -14702,8 +17677,22 @@
       <c r="F3" s="8">
         <v>3887.16</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H3">
+        <f>MATCH("mes",A1:A10,0)</f>
+        <v>1</v>
+      </c>
+      <c r="J3" t="s">
+        <v>41</v>
+      </c>
+      <c r="K3" t="s">
+        <v>38</v>
+      </c>
+      <c r="L3" s="25">
+        <f>INDEX($B$2:$F$10,MATCH(J3,A2:A10,0),MATCH(K3,B1:F1,0))</f>
+        <v>2908.12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
         <v>42</v>
       </c>
@@ -14722,8 +17711,12 @@
       <c r="F4" s="8">
         <v>550</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H4">
+        <f>MATCH("enero",A1:F1,0)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="9" t="s">
         <v>43</v>
       </c>
@@ -14743,7 +17736,7 @@
         <v>2623.5</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="9" t="s">
         <v>44</v>
       </c>
@@ -14763,7 +17756,7 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="9" t="s">
         <v>45</v>
       </c>
@@ -14783,7 +17776,7 @@
         <v>660.75</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="9" t="s">
         <v>46</v>
       </c>
@@ -14803,7 +17796,7 @@
         <v>15620</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="9" t="s">
         <v>47</v>
       </c>
@@ -14823,7 +17816,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="9" t="s">
         <v>48</v>
       </c>
@@ -14844,11 +17837,19 @@
       </c>
     </row>
   </sheetData>
+  <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J3" xr:uid="{AC66E281-A230-4EFB-935A-31C8CCEAEEBF}">
+      <formula1>$A$2:$A$10</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K3" xr:uid="{5289E74D-FC5B-47D6-B136-6EE34D224297}">
+      <formula1>$B$1:$F$1</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1EF169ED-0A5B-4E85-A1DC-CF4116D4BB32}">
   <dimension ref="A1:I5"/>
   <sheetViews>
@@ -14957,7 +17958,7 @@
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{B1DF549A-6DAB-422A-A128-024730FE416F}">
           <x14:formula1>
-            <xm:f>Ventas!$C$1:$E$1</xm:f>
+            <xm:f>Ventas!$E$1:$G$1</xm:f>
           </x14:formula1>
           <xm:sqref>G2</xm:sqref>
         </x14:dataValidation>
